--- a/iSpring/TestCaseForShow.xlsx
+++ b/iSpring/TestCaseForShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" tabRatio="748" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670" tabRatio="748" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ConvPro_PResenter_Suite_SuiteDX" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="743">
   <si>
     <t>Комплексная проверка продуктов iSpring v 8.3</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Converter Pro</t>
   </si>
   <si>
-    <t>Presenter</t>
-  </si>
-  <si>
     <t>Suite</t>
   </si>
   <si>
@@ -448,31 +445,10 @@
     <t>Направленность стрелок соответствует настройке</t>
   </si>
   <si>
-    <t>Слайд с тестом</t>
-  </si>
-  <si>
-    <t>Выбранные слайды не содержат тестов</t>
-  </si>
-  <si>
     <t>в диалоге настройки вкладка Quiz Branching не отображается.</t>
   </si>
   <si>
-    <t>Один из несколько выбранных слайдов содержит тест</t>
-  </si>
-  <si>
-    <t>Только один из выбранных слайдов не содержит тест</t>
-  </si>
-  <si>
-    <t>Все выделенные слайды содержат тесты</t>
-  </si>
-  <si>
     <t>в диалоге настройки вкладка Quiz Branching отображается.</t>
-  </si>
-  <si>
-    <t>Все выделенные слайды содержат тесты(Slide branching)</t>
-  </si>
-  <si>
-    <t>Все выделенные слайды содержат тесты(Quiz branching)</t>
   </si>
   <si>
     <t>Не реализовано множественное изменение бранчинга слайдов с тестами</t>
@@ -2051,10 +2027,6 @@
     <t>Изменение длительности слайдов в PPT</t>
   </si>
   <si>
-    <t>В точках входа в функционал, затрагивающий тайминги презентации проводить проверку. Если тайминг конца клипа N позже начала тайминга начала клипа (N+1), значит присутствует конфликт и необходимо увеличить продолжительность от начала связанного с клипом (Т+1) от начала до первой анимации.
-Жене: сделать техническое описание данной реализации</t>
-  </si>
-  <si>
     <t>Перемещение границ слайда мышью</t>
   </si>
   <si>
@@ -2783,12 +2755,6 @@
     <t>Android телефон</t>
   </si>
   <si>
-    <t>Android Tablet</t>
-  </si>
-  <si>
-    <t>iPad Tablet</t>
-  </si>
-  <si>
     <t>Внешний вид</t>
   </si>
   <si>
@@ -3087,7 +3053,35 @@
     <t>Провален</t>
   </si>
   <si>
-    <t>Такой тест не воспроизводим, так как ссылка на самого себя запрещена</t>
+    <t>Слайд с playlist</t>
+  </si>
+  <si>
+    <t>Выбранные слайды не содержат playlist</t>
+  </si>
+  <si>
+    <t>Один из несколько выбранных слайдов содержит playlist</t>
+  </si>
+  <si>
+    <t>Только один из выбранных слайдов не содержит playlist</t>
+  </si>
+  <si>
+    <t>Все выделенные слайды содержат playlist'ы</t>
+  </si>
+  <si>
+    <t>Все выделенные слайды содержат playlist'ы(Slide branching)</t>
+  </si>
+  <si>
+    <t>Все выделенные слайды содержат playlist'ы(Quiz branching)</t>
+  </si>
+  <si>
+    <t>Колчин Илья ПС-31</t>
+  </si>
+  <si>
+    <t>Cсылка на самого себя запрещена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В точках входа в функционал, затрагивающий тайминги презентации проводить проверку. Если тайминг конца клипа N позже начала тайминга начала клипа (N+1), значит присутствует конфликт и необходимо увеличить продолжительность от начала связанного с клипом (Т+1) от начала до первой анимации.
+</t>
   </si>
 </sst>
 </file>
@@ -3508,7 +3502,7 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3750,11 +3744,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3783,15 +3793,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="5" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent6 2" xfId="7"/>
@@ -3843,7 +3852,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3863,7 +3872,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3893,7 +3902,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3913,7 +3922,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3943,7 +3952,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3963,7 +3972,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3982,15 +3991,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78441</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:rowOff>46504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4371975</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>7138147</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>291352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4001,7 +4010,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4012,8 +4021,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6553199" y="35185351"/>
-          <a:ext cx="4371975" cy="885824"/>
+          <a:off x="6622676" y="35109710"/>
+          <a:ext cx="7059706" cy="1992966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4546,7 +4555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4556,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G158"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4565,25 +4574,25 @@
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="64" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="89" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="G3" t="s">
-        <v>740</v>
+      <c r="D3" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4616,15 +4625,14 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6"/>
@@ -4634,1298 +4642,1160 @@
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:7">
       <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
       <c r="E13" s="107"/>
       <c r="F13" s="107"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
       <c r="E15" s="107"/>
       <c r="F15" s="107"/>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:6">
       <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="1"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+    </row>
+    <row r="24" spans="2:6">
       <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
       <c r="E24" s="107"/>
       <c r="F24" s="107"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
       <c r="E25" s="107"/>
       <c r="F25" s="107"/>
     </row>
-    <row r="26" spans="2:7" s="7" customFormat="1">
+    <row r="26" spans="2:6" s="7" customFormat="1">
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="2:7" s="7" customFormat="1">
+    <row r="27" spans="2:6" s="7" customFormat="1">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="2:7" s="7" customFormat="1">
+    <row r="28" spans="2:6" s="7" customFormat="1">
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="2:7" s="7" customFormat="1">
+    <row r="29" spans="2:6" s="7" customFormat="1">
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="2:7" s="7" customFormat="1">
+    <row r="30" spans="2:6" s="7" customFormat="1">
       <c r="B30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="7" t="s">
+    </row>
+    <row r="31" spans="2:6" s="7" customFormat="1">
+      <c r="B31" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" s="7" customFormat="1">
-      <c r="B31" s="31" t="s">
-        <v>34</v>
-      </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="2:7" s="7" customFormat="1">
+    <row r="32" spans="2:6" s="7" customFormat="1">
       <c r="B32" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
     </row>
-    <row r="33" spans="2:7" s="7" customFormat="1">
+    <row r="33" spans="2:6" s="7" customFormat="1">
       <c r="B33" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" s="7" customFormat="1">
+    </row>
+    <row r="34" spans="2:6" s="7" customFormat="1">
       <c r="B34" s="64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:6">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="66"/>
-      <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:6">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:6">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:6">
       <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:6">
       <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" t="s">
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" t="s">
+      <c r="C40" s="107"/>
+      <c r="D40" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
       <c r="E40" s="107"/>
       <c r="F40" s="107"/>
-      <c r="G40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+    </row>
+    <row r="41" spans="2:6">
       <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
       <c r="E41" s="107"/>
       <c r="F41" s="107"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:6">
       <c r="B42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="10" t="s">
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="D43" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
+    </row>
+    <row r="45" spans="2:6">
       <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
       <c r="E45" s="107"/>
       <c r="F45" s="107"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:6">
       <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="107"/>
+      <c r="D46" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
       <c r="E46" s="107"/>
       <c r="F46" s="107"/>
-      <c r="G46" t="s">
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="107"/>
+      <c r="D47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
       <c r="E47" s="107"/>
       <c r="F47" s="107"/>
-      <c r="G47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+    </row>
+    <row r="48" spans="2:6">
       <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
       <c r="E48" s="107"/>
       <c r="F48" s="107"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:6">
       <c r="B49" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
       <c r="E49" s="107"/>
       <c r="F49" s="107"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:6">
       <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
       <c r="E50" s="107"/>
       <c r="F50" s="107"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:6">
       <c r="B51" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
       <c r="E51" s="107"/>
       <c r="F51" s="107"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:6">
       <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
       <c r="E52" s="107"/>
       <c r="F52" s="107"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
       <c r="E53" s="107"/>
       <c r="F53" s="107"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:6">
       <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
       <c r="E54" s="107"/>
       <c r="F54" s="107"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:6">
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
       <c r="E55" s="107"/>
       <c r="F55" s="107"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:6">
       <c r="B56" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:6">
       <c r="B57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="7"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:6">
       <c r="B59" s="7"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:6">
       <c r="B60" s="7"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:6">
       <c r="B61" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:6">
       <c r="B63" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:6">
       <c r="B64" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:6">
       <c r="B65" s="7"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="2:7" ht="30">
+    <row r="66" spans="2:6" ht="30">
       <c r="B66" s="96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:6">
       <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
       <c r="E67" s="107"/>
       <c r="F67" s="107"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:6">
       <c r="B68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="2:7">
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="10"/>
-    </row>
-    <row r="70" spans="2:7">
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:6">
       <c r="B71" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:6">
       <c r="B72" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:6">
       <c r="B73" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
-      <c r="G73" t="s">
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
-      <c r="G74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
+    </row>
+    <row r="75" spans="2:6">
       <c r="B75" s="7"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:6">
       <c r="B76" s="7"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:6">
       <c r="B77" s="7"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:6">
       <c r="B78" s="7"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:6">
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" s="107"/>
-      <c r="D79" s="107"/>
       <c r="E79" s="107"/>
       <c r="F79" s="107"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:6">
       <c r="B80" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="7"/>
       <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="7"/>
       <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="7"/>
       <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="7"/>
       <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="7"/>
       <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C94" s="107"/>
-      <c r="D94" s="107"/>
       <c r="E94" s="107"/>
       <c r="F94" s="107"/>
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:6">
       <c r="B97" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:6">
       <c r="B98" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:6">
       <c r="B99" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:6">
       <c r="B100" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
-      <c r="G100" t="s">
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="7" t="s">
+      <c r="C101" s="11"/>
+      <c r="D101" t="s">
         <v>93</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
-      <c r="G101" t="s">
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:6">
       <c r="B103" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:6">
       <c r="B104" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:6">
       <c r="B105" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:6">
       <c r="B106" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="107"/>
+      <c r="D106" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="107"/>
-      <c r="D106" s="107"/>
       <c r="E106" s="107"/>
       <c r="F106" s="107"/>
-      <c r="G106" t="s">
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107" s="7" t="s">
+      <c r="C107" s="11"/>
+      <c r="D107" t="s">
         <v>101</v>
       </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
-      <c r="G107" t="s">
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:6">
       <c r="B109" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:6">
       <c r="B110" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:6">
       <c r="B111" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:6">
       <c r="B112" s="7"/>
       <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:6">
       <c r="B113" s="7"/>
       <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:6">
       <c r="B114" s="7"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:6">
       <c r="B115" s="7"/>
       <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:6">
       <c r="B116" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" s="107"/>
-      <c r="D116" s="107"/>
       <c r="E116" s="107"/>
       <c r="F116" s="107"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:6">
       <c r="B117" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
+      <c r="D117" t="s">
+        <v>107</v>
+      </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
-      <c r="G117" t="s">
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="D118" t="s">
+        <v>107</v>
+      </c>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
-      <c r="G118" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7">
+    </row>
+    <row r="119" spans="2:6">
       <c r="B119" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
+      <c r="D119" t="s">
+        <v>107</v>
+      </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
-      <c r="G119" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
+    </row>
+    <row r="120" spans="2:6">
       <c r="C120" s="107"/>
-      <c r="D120" s="107"/>
       <c r="E120" s="107"/>
       <c r="F120" s="107"/>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:6">
       <c r="B121" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C121" s="107"/>
-      <c r="D121" s="107"/>
       <c r="E121" s="107"/>
       <c r="F121" s="107"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:6">
       <c r="B122" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C122" s="107"/>
-      <c r="D122" s="107"/>
+      <c r="D122" t="s">
+        <v>107</v>
+      </c>
       <c r="E122" s="107"/>
       <c r="F122" s="107"/>
-      <c r="G122" t="s">
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="C123" s="107"/>
-      <c r="D123" s="107"/>
+      <c r="D123" t="s">
+        <v>107</v>
+      </c>
       <c r="E123" s="107"/>
       <c r="F123" s="107"/>
-      <c r="G123" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7">
+    </row>
+    <row r="124" spans="2:6">
       <c r="B124" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C124" s="107"/>
-      <c r="D124" s="107"/>
+      <c r="D124" t="s">
+        <v>107</v>
+      </c>
       <c r="E124" s="107"/>
       <c r="F124" s="107"/>
-      <c r="G124" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7">
+    </row>
+    <row r="125" spans="2:6">
       <c r="C125" s="107"/>
-      <c r="D125" s="107"/>
       <c r="E125" s="107"/>
       <c r="F125" s="107"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:6">
       <c r="B126" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C126" s="107"/>
-      <c r="D126" s="107"/>
       <c r="E126" s="107"/>
       <c r="F126" s="107"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:6">
       <c r="B127" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
+      <c r="D127" t="s">
+        <v>112</v>
+      </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
-      <c r="G127" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7">
+    </row>
+    <row r="128" spans="2:6">
       <c r="B128" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="D128" t="s">
+        <v>112</v>
+      </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
-      <c r="G128" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7">
+    </row>
+    <row r="129" spans="2:6">
       <c r="B129" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
+      <c r="D129" t="s">
+        <v>112</v>
+      </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
-      <c r="G129" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
+    </row>
+    <row r="130" spans="2:6">
       <c r="C130" s="107"/>
-      <c r="D130" s="107"/>
       <c r="E130" s="107"/>
       <c r="F130" s="107"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:6">
       <c r="B131" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C131" s="107"/>
-      <c r="D131" s="107"/>
       <c r="E131" s="107"/>
       <c r="F131" s="107"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:6">
       <c r="B132" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+      <c r="D132" t="s">
+        <v>112</v>
+      </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
-      <c r="G132" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7">
+    </row>
+    <row r="133" spans="2:6">
       <c r="B133" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
+      <c r="D133" t="s">
+        <v>112</v>
+      </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
-      <c r="G133" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7">
+    </row>
+    <row r="134" spans="2:6">
       <c r="B134" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="D134" t="s">
+        <v>112</v>
+      </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
-      <c r="G134" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
+    </row>
+    <row r="135" spans="2:6">
       <c r="C135" s="107"/>
-      <c r="D135" s="107"/>
       <c r="E135" s="107"/>
       <c r="F135" s="107"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:6">
       <c r="B136" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C136" s="107"/>
-      <c r="D136" s="107"/>
       <c r="E136" s="107"/>
       <c r="F136" s="107"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:6">
       <c r="B137" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
+      <c r="D137" t="s">
+        <v>107</v>
+      </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
-      <c r="G137" t="s">
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="138" spans="2:7">
-      <c r="B138" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+      <c r="D138" t="s">
+        <v>107</v>
+      </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
-      <c r="G138" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7">
+    </row>
+    <row r="139" spans="2:6">
       <c r="B139" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
+      <c r="D139" t="s">
+        <v>107</v>
+      </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
-      <c r="G139" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7">
+    </row>
+    <row r="140" spans="2:6">
       <c r="B140" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:6">
       <c r="B141" s="7"/>
       <c r="C141" s="107"/>
-      <c r="D141" s="107"/>
       <c r="E141" s="107"/>
       <c r="F141" s="107"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:6">
       <c r="B142" s="106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-    </row>
-    <row r="143" spans="2:7">
+    </row>
+    <row r="143" spans="2:6">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:6">
       <c r="B144" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-    </row>
-    <row r="145" spans="2:7">
+    </row>
+    <row r="145" spans="2:6">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:6">
       <c r="B146" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-    </row>
-    <row r="148" spans="2:7">
+    </row>
+    <row r="148" spans="2:6">
       <c r="B148" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-    </row>
-    <row r="150" spans="2:7">
+    </row>
+    <row r="150" spans="2:6">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:6">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:6">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:6">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:6">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:6">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:6">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:6">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:6">
       <c r="B158" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B30" location="'Применение настроек бранчинга'!A1" display="Проверка бранчинга"/>
     <hyperlink ref="B34" location="'Playlist в PE'!A1" display="Playlists"/>
-    <hyperlink ref="G42" r:id="rId1" location="comment=71-187817"/>
-    <hyperlink ref="G43" r:id="rId2" location="comment=71-187656"/>
-    <hyperlink ref="G23" r:id="rId3" location="comment=71-188914"/>
-    <hyperlink ref="G44" location="'Активация продукта + Maint'!A1" display="Полная Проверка активации тут"/>
+    <hyperlink ref="D42" r:id="rId1" location="comment=71-187817"/>
+    <hyperlink ref="D43" r:id="rId2" location="comment=71-187656"/>
+    <hyperlink ref="D23" r:id="rId3" location="comment=71-188914"/>
+    <hyperlink ref="D44" location="'Активация продукта + Maint'!A1" display="Полная Проверка активации тут"/>
     <hyperlink ref="B51" location="'Изменения в Narration Editor 8'!A1" display="Manage Narration"/>
     <hyperlink ref="B49" location="'Мастер настройки микрофона'!A1" display="Мастер настройки микрофона"/>
     <hyperlink ref="B62" location="'50х50 Внешний вид'!A1" display="→ Внешний вид"/>
@@ -5942,8 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5958,19 +5828,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25">
       <c r="B1" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21">
       <c r="B2" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
       <c r="B3" s="29"/>
-      <c r="C3" s="127"/>
+      <c r="C3" s="117"/>
       <c r="D3" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5978,19 +5848,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="128"/>
+      <c r="C4" s="118"/>
       <c r="D4" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="C5" s="119"/>
       <c r="D5" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6010,24 +5882,24 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33" customHeight="1">
       <c r="B9" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -6037,75 +5909,75 @@
     </row>
     <row r="10" spans="1:7" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B10" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="34.5" customHeight="1">
       <c r="B11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="126"/>
+        <v>130</v>
+      </c>
+      <c r="C11" s="116"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34.5" customHeight="1">
       <c r="B12" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="126"/>
+        <v>132</v>
+      </c>
+      <c r="C12" s="116"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
       <c r="G12" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29.25" customHeight="1">
       <c r="B13" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="126"/>
+        <v>133</v>
+      </c>
+      <c r="C13" s="116"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="21"/>
       <c r="G13" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="B14" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="126"/>
+        <v>135</v>
+      </c>
+      <c r="C14" s="116"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="21"/>
       <c r="G14" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34.5" customHeight="1">
       <c r="B15" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="126"/>
+        <v>136</v>
+      </c>
+      <c r="C15" s="116"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
       <c r="G15" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34.5" customHeight="1">
       <c r="B16" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="126"/>
+        <v>138</v>
+      </c>
+      <c r="C16" s="116"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
@@ -6113,61 +5985,61 @@
     </row>
     <row r="17" spans="2:7" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B17" s="18" t="s">
-        <v>140</v>
+        <v>733</v>
       </c>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" ht="18" customHeight="1">
       <c r="B18" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+        <v>734</v>
+      </c>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
       <c r="G18" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="27.75" customHeight="1">
       <c r="B19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
+        <v>735</v>
+      </c>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
       <c r="G19" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="27.75" customHeight="1">
       <c r="B20" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+        <v>736</v>
+      </c>
+      <c r="C20" s="137"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
       <c r="G20" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1">
       <c r="B21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
+        <v>737</v>
+      </c>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:7" s="22" customFormat="1" ht="30.75" customHeight="1">
       <c r="B22" s="23" t="s">
-        <v>147</v>
+        <v>738</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -6177,69 +6049,69 @@
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1">
       <c r="B23" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="130"/>
+        <v>130</v>
+      </c>
+      <c r="C23" s="120"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="29.25" customHeight="1">
       <c r="B24" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="130"/>
+        <v>132</v>
+      </c>
+      <c r="C24" s="120"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="29.25" customHeight="1">
       <c r="B25" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="130"/>
+        <v>133</v>
+      </c>
+      <c r="C25" s="120"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="29.25" customHeight="1">
       <c r="B26" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="130"/>
+        <v>135</v>
+      </c>
+      <c r="C26" s="120"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="29.25" customHeight="1">
       <c r="B27" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="130"/>
+        <v>136</v>
+      </c>
+      <c r="C27" s="120"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="29.25" customHeight="1">
       <c r="B28" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="130"/>
+        <v>138</v>
+      </c>
+      <c r="C28" s="120"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -6247,200 +6119,200 @@
     </row>
     <row r="29" spans="2:7" s="22" customFormat="1" ht="31.5" customHeight="1">
       <c r="B29" s="23" t="s">
-        <v>148</v>
+        <v>739</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="26" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+        <v>142</v>
+      </c>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
       <c r="G30" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+        <v>144</v>
+      </c>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
       <c r="G31" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
       <c r="G32" s="17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
       <c r="B33" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+        <v>146</v>
+      </c>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
       <c r="G33" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="30">
       <c r="B34" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+        <v>146</v>
+      </c>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
       <c r="G34" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="30">
       <c r="B35" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+        <v>147</v>
+      </c>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
       <c r="G35" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
       <c r="G36" s="17"/>
     </row>
     <row r="38" spans="2:7" s="18" customFormat="1" ht="14.25" customHeight="1">
       <c r="B38" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="C39" s="122" t="s">
+        <v>741</v>
+      </c>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="30">
       <c r="B40" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+        <v>150</v>
+      </c>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="30">
       <c r="B41" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+        <v>152</v>
+      </c>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+        <v>153</v>
+      </c>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
       <c r="G42" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+        <v>155</v>
+      </c>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="27"/>
+        <v>157</v>
+      </c>
+      <c r="C44" s="122"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C45" s="27"/>
+        <v>159</v>
+      </c>
+      <c r="C45" s="122"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="27"/>
+        <v>161</v>
+      </c>
+      <c r="C46" s="122"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:7">
@@ -6473,7 +6345,7 @@
     </row>
     <row r="52" spans="2:6" ht="21">
       <c r="B52" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6491,8 +6363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6506,58 +6378,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="B1" s="117" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
+      <c r="B1" s="127" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="A2" s="63" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B2" s="61"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="63" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="61"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="61"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B5" s="108"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="117"/>
+      <c r="D5" t="s">
+        <v>730</v>
+      </c>
       <c r="E5" s="109"/>
       <c r="F5" s="62"/>
     </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1"/>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1">
+      <c r="C6" s="118"/>
+      <c r="D6" t="s">
+        <v>731</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="B7" s="65" t="s">
-        <v>174</v>
+        <v>166</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1"/>
@@ -6567,10 +6450,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="39"/>
@@ -6578,7 +6461,7 @@
     <row r="10" spans="1:6" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A10" s="41"/>
       <c r="B10" s="42" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="42"/>
@@ -6587,7 +6470,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="46" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="110"/>
@@ -6595,7 +6478,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="46" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="110"/>
@@ -6603,64 +6486,64 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="50"/>
+        <v>171</v>
+      </c>
+      <c r="C13" s="121"/>
       <c r="D13" s="51"/>
       <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="B14" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="47"/>
+        <v>172</v>
+      </c>
+      <c r="C14" s="121"/>
       <c r="D14" s="110"/>
       <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="50"/>
+        <v>173</v>
+      </c>
+      <c r="C15" s="121"/>
       <c r="D15" s="51"/>
       <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:6" ht="75">
       <c r="B16" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="C16" s="121"/>
       <c r="D16" s="110"/>
       <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="47"/>
+        <v>175</v>
+      </c>
+      <c r="C17" s="121"/>
       <c r="D17" s="110"/>
       <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="47"/>
+        <v>176</v>
+      </c>
+      <c r="C18" s="121"/>
       <c r="D18" s="110"/>
       <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="47"/>
+        <v>177</v>
+      </c>
+      <c r="C19" s="121"/>
       <c r="D19" s="110"/>
       <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:6" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A20" s="41"/>
       <c r="B20" s="42" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="42"/>
@@ -6669,7 +6552,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="46" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="110"/>
@@ -6677,7 +6560,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="46" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="110"/>
@@ -6685,17 +6568,17 @@
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="B23" s="46" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="110" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E23" s="48"/>
     </row>
     <row r="24" spans="1:6" ht="60">
       <c r="B24" s="46" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="110"/>
@@ -6704,7 +6587,7 @@
     <row r="25" spans="1:6" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A25" s="41"/>
       <c r="B25" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="42"/>
@@ -6713,26 +6596,26 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="47"/>
+        <v>184</v>
+      </c>
+      <c r="C26" s="121"/>
       <c r="D26" s="53" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="47"/>
+        <v>186</v>
+      </c>
+      <c r="C27" s="121"/>
       <c r="D27" s="110"/>
       <c r="E27" s="48"/>
     </row>
     <row r="28" spans="1:6" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A28" s="41"/>
       <c r="B28" s="42" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="42"/>
@@ -6741,15 +6624,15 @@
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="47"/>
+        <v>188</v>
+      </c>
+      <c r="C29" s="121"/>
       <c r="D29" s="110"/>
       <c r="E29" s="48"/>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="54" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="51"/>
@@ -6757,39 +6640,39 @@
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="47"/>
+        <v>190</v>
+      </c>
+      <c r="C31" s="121"/>
       <c r="D31" s="110"/>
       <c r="E31" s="48"/>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="C32" s="47"/>
+        <v>191</v>
+      </c>
+      <c r="C32" s="121"/>
       <c r="D32" s="110"/>
       <c r="E32" s="48"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C33" s="47"/>
+        <v>192</v>
+      </c>
+      <c r="C33" s="121"/>
       <c r="D33" s="110"/>
       <c r="E33" s="48"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="47"/>
+        <v>193</v>
+      </c>
+      <c r="C34" s="121"/>
       <c r="D34" s="110"/>
       <c r="E34" s="48"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="54" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
@@ -6797,47 +6680,47 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="47"/>
+        <v>195</v>
+      </c>
+      <c r="C36" s="121"/>
       <c r="D36" s="110"/>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="47"/>
+        <v>196</v>
+      </c>
+      <c r="C37" s="121"/>
       <c r="D37" s="110"/>
       <c r="E37" s="48"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="47"/>
+        <v>197</v>
+      </c>
+      <c r="C38" s="121"/>
       <c r="D38" s="110"/>
       <c r="E38" s="48"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="47"/>
+        <v>198</v>
+      </c>
+      <c r="C39" s="121"/>
       <c r="D39" s="110"/>
       <c r="E39" s="48"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="47"/>
+        <v>199</v>
+      </c>
+      <c r="C40" s="121"/>
       <c r="D40" s="110"/>
       <c r="E40" s="48"/>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="54" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C41" s="50"/>
       <c r="D41" s="51"/>
@@ -6845,33 +6728,33 @@
     </row>
     <row r="42" spans="2:5" ht="19.5" customHeight="1">
       <c r="B42" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" s="47"/>
+        <v>201</v>
+      </c>
+      <c r="C42" s="121"/>
       <c r="D42" s="110" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E42" s="48"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="C43" s="47"/>
+        <v>203</v>
+      </c>
+      <c r="C43" s="121"/>
       <c r="D43" s="110"/>
       <c r="E43" s="48"/>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="47"/>
+        <v>204</v>
+      </c>
+      <c r="C44" s="121"/>
       <c r="D44" s="110"/>
       <c r="E44" s="48"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="46" t="s">
-        <v>213</v>
+      <c r="B45" s="136" t="s">
+        <v>205</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="110"/>
@@ -6879,19 +6762,19 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="47"/>
+        <v>206</v>
+      </c>
+      <c r="C46" s="121"/>
       <c r="D46" s="110" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E46" s="48"/>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="47"/>
+        <v>208</v>
+      </c>
+      <c r="C47" s="121"/>
       <c r="D47" s="110">
         <v>200</v>
       </c>
@@ -6899,33 +6782,33 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" s="47"/>
+        <v>209</v>
+      </c>
+      <c r="C48" s="121"/>
       <c r="D48" s="110"/>
       <c r="E48" s="48"/>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="47"/>
+        <v>210</v>
+      </c>
+      <c r="C49" s="121"/>
       <c r="D49" s="110" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E49" s="48"/>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" s="47"/>
+        <v>212</v>
+      </c>
+      <c r="C50" s="121"/>
       <c r="D50" s="110"/>
       <c r="E50" s="48"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="54" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C51" s="50"/>
       <c r="D51" s="51"/>
@@ -6933,51 +6816,51 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" s="47"/>
+        <v>214</v>
+      </c>
+      <c r="C52" s="121"/>
       <c r="D52" s="110"/>
       <c r="E52" s="48"/>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="47"/>
+        <v>215</v>
+      </c>
+      <c r="C53" s="121"/>
       <c r="D53" s="110"/>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54" s="47"/>
+        <v>204</v>
+      </c>
+      <c r="C54" s="121"/>
       <c r="D54" s="110" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="47"/>
+      <c r="B55" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="121"/>
       <c r="D55" s="110"/>
       <c r="E55" s="48"/>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="47"/>
+        <v>206</v>
+      </c>
+      <c r="C56" s="121"/>
       <c r="D56" s="110"/>
       <c r="E56" s="48"/>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C57" s="47"/>
+        <v>208</v>
+      </c>
+      <c r="C57" s="121"/>
       <c r="D57" s="110">
         <v>200</v>
       </c>
@@ -6985,25 +6868,25 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="C58" s="47"/>
+        <v>218</v>
+      </c>
+      <c r="C58" s="121"/>
       <c r="D58" s="110" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E58" s="48"/>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="C59" s="47"/>
+        <v>219</v>
+      </c>
+      <c r="C59" s="121"/>
       <c r="D59" s="110"/>
       <c r="E59" s="48"/>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="54" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C60" s="50"/>
       <c r="D60" s="51"/>
@@ -7011,44 +6894,44 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C61" s="47"/>
+        <v>221</v>
+      </c>
+      <c r="C61" s="121"/>
       <c r="D61" s="110" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E61" s="48"/>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="47"/>
+        <v>223</v>
+      </c>
+      <c r="C62" s="121"/>
       <c r="D62" s="110"/>
       <c r="E62" s="48"/>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="47"/>
+        <v>224</v>
+      </c>
+      <c r="C63" s="121"/>
       <c r="D63" s="110" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E63" s="48"/>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="47"/>
+        <v>226</v>
+      </c>
+      <c r="C64" s="121"/>
       <c r="D64" s="110"/>
       <c r="E64" s="48"/>
     </row>
     <row r="65" spans="1:6" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A65" s="41"/>
       <c r="B65" s="42" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="42"/>
@@ -7057,7 +6940,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="B66" s="54" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C66" s="50"/>
       <c r="D66" s="51"/>
@@ -7065,39 +6948,39 @@
     </row>
     <row r="67" spans="1:6">
       <c r="B67" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="47"/>
+        <v>229</v>
+      </c>
+      <c r="C67" s="121"/>
       <c r="D67" s="110"/>
       <c r="E67" s="48"/>
     </row>
     <row r="68" spans="1:6">
       <c r="B68" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C68" s="47"/>
+        <v>230</v>
+      </c>
+      <c r="C68" s="121"/>
       <c r="D68" s="110"/>
       <c r="E68" s="48"/>
     </row>
     <row r="69" spans="1:6" ht="45">
       <c r="B69" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="C69" s="47"/>
+        <v>231</v>
+      </c>
+      <c r="C69" s="121"/>
       <c r="D69" s="110"/>
       <c r="E69" s="48"/>
     </row>
     <row r="70" spans="1:6">
       <c r="B70" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C70" s="47"/>
+        <v>232</v>
+      </c>
+      <c r="C70" s="121"/>
       <c r="D70" s="110"/>
       <c r="E70" s="48"/>
     </row>
     <row r="71" spans="1:6">
       <c r="B71" s="46" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C71" s="47"/>
       <c r="D71" s="110"/>
@@ -7105,17 +6988,17 @@
     </row>
     <row r="72" spans="1:6" ht="30">
       <c r="B72" s="46" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C72" s="47"/>
       <c r="D72" s="110" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E72" s="48"/>
     </row>
     <row r="73" spans="1:6">
       <c r="B73" s="46" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C73" s="47"/>
       <c r="D73" s="110"/>
@@ -7123,17 +7006,17 @@
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="57" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C74" s="47"/>
       <c r="D74" s="110" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E74" s="48"/>
     </row>
     <row r="75" spans="1:6">
       <c r="B75" s="46" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C75" s="47"/>
       <c r="D75" s="110"/>
@@ -7141,27 +7024,27 @@
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="46" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C76" s="47"/>
       <c r="D76" s="110" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E76" s="48"/>
     </row>
     <row r="77" spans="1:6">
       <c r="B77" s="46" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C77" s="47"/>
       <c r="D77" s="110" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E77" s="48"/>
     </row>
     <row r="78" spans="1:6">
       <c r="B78" s="46" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C78" s="47"/>
       <c r="D78" s="110"/>
@@ -7169,7 +7052,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="B79" s="54" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C79" s="50"/>
       <c r="D79" s="51"/>
@@ -7177,27 +7060,27 @@
     </row>
     <row r="80" spans="1:6" ht="30">
       <c r="B80" s="46" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C80" s="47"/>
       <c r="D80" s="110" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E80" s="48"/>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="46" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C81" s="47"/>
       <c r="D81" s="110" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E81" s="48"/>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="46" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C82" s="47"/>
       <c r="D82" s="110"/>
@@ -7205,17 +7088,17 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="46" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C83" s="47"/>
       <c r="D83" s="110" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E83" s="48"/>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="46" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C84" s="47"/>
       <c r="D84" s="110"/>
@@ -7223,7 +7106,7 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="54" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C85" s="50"/>
       <c r="D85" s="51"/>
@@ -7231,7 +7114,7 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="46" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C86" s="47"/>
       <c r="D86" s="110"/>
@@ -7239,17 +7122,17 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="46" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C87" s="47"/>
       <c r="D87" s="110" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E87" s="48"/>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="46" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C88" s="47"/>
       <c r="D88" s="110"/>
@@ -7257,17 +7140,17 @@
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="46" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C89" s="47"/>
       <c r="D89" s="110" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E89" s="48"/>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="46" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C90" s="47"/>
       <c r="D90" s="110"/>
@@ -7275,7 +7158,7 @@
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="46" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C91" s="47"/>
       <c r="D91" s="110"/>
@@ -7283,7 +7166,7 @@
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="46" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C92" s="47"/>
       <c r="D92" s="110"/>
@@ -7291,7 +7174,7 @@
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="46" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C93" s="47"/>
       <c r="D93" s="110"/>
@@ -7299,7 +7182,7 @@
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="54" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="51"/>
@@ -7307,7 +7190,7 @@
     </row>
     <row r="95" spans="2:5" ht="30">
       <c r="B95" s="46" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C95" s="47"/>
       <c r="D95" s="110"/>
@@ -7315,7 +7198,7 @@
     </row>
     <row r="96" spans="2:5" ht="30">
       <c r="B96" s="46" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C96" s="47"/>
       <c r="D96" s="110"/>
@@ -7323,7 +7206,7 @@
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="46" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C97" s="47"/>
       <c r="D97" s="110"/>
@@ -7331,7 +7214,7 @@
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="46" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C98" s="47"/>
       <c r="D98" s="110"/>
@@ -7339,7 +7222,7 @@
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="46" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C99" s="47"/>
       <c r="D99" s="110"/>
@@ -7347,17 +7230,17 @@
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="54" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C100" s="50"/>
       <c r="D100" s="51" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E100" s="48"/>
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="46" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C101" s="47"/>
       <c r="D101" s="110"/>
@@ -7365,7 +7248,7 @@
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="58" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C102" s="47"/>
       <c r="D102" s="110"/>
@@ -7373,7 +7256,7 @@
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="54" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C103" s="50"/>
       <c r="D103" s="51"/>
@@ -7381,7 +7264,7 @@
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="46" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C104" s="47"/>
       <c r="D104" s="110"/>
@@ -7389,7 +7272,7 @@
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="46" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C105" s="47"/>
       <c r="D105" s="110"/>
@@ -7397,7 +7280,7 @@
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="54" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C106" s="50"/>
       <c r="D106" s="51"/>
@@ -7405,7 +7288,7 @@
     </row>
     <row r="107" spans="2:5">
       <c r="B107" s="46" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C107" s="47"/>
       <c r="D107" s="110"/>
@@ -7413,7 +7296,7 @@
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="46" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C108" s="47"/>
       <c r="D108" s="110"/>
@@ -7421,7 +7304,7 @@
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="54" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C109" s="50"/>
       <c r="D109" s="51"/>
@@ -7429,17 +7312,17 @@
     </row>
     <row r="110" spans="2:5" ht="30">
       <c r="B110" s="46" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C110" s="47"/>
       <c r="D110" s="55" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E110" s="48"/>
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="46" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C111" s="47"/>
       <c r="D111" s="110"/>
@@ -7447,7 +7330,7 @@
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="46" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C112" s="47"/>
       <c r="D112" s="110"/>
@@ -7455,7 +7338,7 @@
     </row>
     <row r="113" spans="2:5" ht="30">
       <c r="B113" s="46" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C113" s="47"/>
       <c r="D113" s="110"/>
@@ -7463,17 +7346,17 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="46" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C114" s="47"/>
       <c r="D114" s="110" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E114" s="48"/>
     </row>
     <row r="115" spans="2:5" ht="30">
       <c r="B115" s="46" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C115" s="47"/>
       <c r="D115" s="110"/>
@@ -7481,37 +7364,37 @@
     </row>
     <row r="116" spans="2:5" ht="30">
       <c r="B116" s="46" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C116" s="47"/>
       <c r="D116" s="110" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="E116" s="48"/>
     </row>
     <row r="117" spans="2:5" ht="30">
       <c r="B117" s="46" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C117" s="47"/>
       <c r="D117" s="110" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E117" s="48"/>
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="54" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C118" s="50"/>
       <c r="D118" s="51" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E118" s="48"/>
     </row>
     <row r="119" spans="2:5" ht="30">
       <c r="B119" s="46" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C119" s="47"/>
       <c r="D119" s="110"/>
@@ -7519,17 +7402,17 @@
     </row>
     <row r="120" spans="2:5" ht="30">
       <c r="B120" s="46" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C120" s="47"/>
       <c r="D120" s="110" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E120" s="48"/>
     </row>
     <row r="121" spans="2:5" ht="30">
       <c r="B121" s="46" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C121" s="47"/>
       <c r="D121" s="110"/>
@@ -7537,17 +7420,17 @@
     </row>
     <row r="122" spans="2:5" ht="30">
       <c r="B122" s="46" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C122" s="47"/>
       <c r="D122" s="55" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E122" s="48"/>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="54" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C123" s="50"/>
       <c r="D123" s="51"/>
@@ -7555,47 +7438,47 @@
     </row>
     <row r="124" spans="2:5" ht="30">
       <c r="B124" s="46" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C124" s="47"/>
       <c r="D124" s="110" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E124" s="48"/>
     </row>
     <row r="125" spans="2:5" ht="30">
       <c r="B125" s="46" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C125" s="47"/>
       <c r="D125" s="110" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E125" s="48"/>
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="46" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C126" s="47"/>
       <c r="D126" s="110" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E126" s="48"/>
     </row>
     <row r="127" spans="2:5" ht="30">
       <c r="B127" s="46" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C127" s="47"/>
       <c r="D127" s="110" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E127" s="48"/>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="46" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C128" s="47"/>
       <c r="D128" s="110"/>
@@ -7603,18 +7486,18 @@
     </row>
     <row r="129" spans="1:6">
       <c r="B129" s="46" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C129" s="47"/>
       <c r="D129" s="110" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E129" s="48"/>
     </row>
     <row r="130" spans="1:6" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A130" s="41"/>
       <c r="B130" s="42" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C130" s="43"/>
       <c r="D130" s="42"/>
@@ -7623,7 +7506,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="B131" s="54" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C131" s="50"/>
       <c r="D131" s="51"/>
@@ -7631,7 +7514,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="B132" s="46" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C132" s="47"/>
       <c r="D132" s="110"/>
@@ -7639,7 +7522,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="B133" s="46" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C133" s="47"/>
       <c r="D133" s="110"/>
@@ -7647,7 +7530,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="B134" s="46" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C134" s="47"/>
       <c r="D134" s="110"/>
@@ -7655,118 +7538,118 @@
     </row>
     <row r="138" spans="1:6" ht="30">
       <c r="B138" s="59" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C138" s="60" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D138" s="51"/>
     </row>
     <row r="139" spans="1:6">
       <c r="B139" s="56" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C139" s="47"/>
       <c r="D139" s="110"/>
     </row>
     <row r="140" spans="1:6">
       <c r="B140" s="46" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C140" s="47"/>
       <c r="D140" s="110"/>
     </row>
     <row r="141" spans="1:6" ht="30">
       <c r="B141" s="55" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C141" s="47"/>
       <c r="D141" s="110" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="B142" s="46" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C142" s="47"/>
       <c r="D142" s="110"/>
     </row>
     <row r="143" spans="1:6">
       <c r="B143" s="46" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C143" s="47"/>
       <c r="D143" s="110"/>
     </row>
     <row r="144" spans="1:6">
       <c r="B144" s="46" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C144" s="47"/>
       <c r="D144" s="110"/>
     </row>
     <row r="145" spans="2:4">
       <c r="B145" s="46" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C145" s="47"/>
       <c r="D145" s="110"/>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" s="55" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C146" s="47"/>
       <c r="D146" s="110" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="2:4">
       <c r="B147" s="55" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C147" s="47"/>
       <c r="D147" s="110"/>
     </row>
     <row r="148" spans="2:4">
       <c r="B148" s="55" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C148" s="47"/>
       <c r="D148" s="110"/>
     </row>
     <row r="149" spans="2:4">
       <c r="B149" s="55" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C149" s="47"/>
       <c r="D149" s="110"/>
     </row>
     <row r="150" spans="2:4">
       <c r="B150" s="55" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C150" s="47"/>
       <c r="D150" s="110"/>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" s="55" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C151" s="47"/>
       <c r="D151" s="110"/>
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="55" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C152" s="47"/>
       <c r="D152" s="110"/>
     </row>
     <row r="155" spans="2:4" ht="18.75">
       <c r="B155" s="65" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -7789,8 +7672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F294"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D291" sqref="D291"/>
+    <sheetView topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7804,54 +7687,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="B1" s="120" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="B1" s="130" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1">
       <c r="B2" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
+        <v>164</v>
+      </c>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1">
       <c r="B3" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+        <v>337</v>
+      </c>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" customHeight="1">
       <c r="B4" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
+        <v>338</v>
+      </c>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1">
       <c r="B5" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
+        <v>165</v>
+      </c>
+      <c r="C5" s="132"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1"/>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
       <c r="B7" s="84" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1">
@@ -7863,10 +7746,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="39"/>
@@ -7874,7 +7757,7 @@
     <row r="10" spans="1:6" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A10" s="41"/>
       <c r="B10" s="42" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="42"/>
@@ -7883,164 +7766,164 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="67" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="110"/>
       <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="C12" s="47"/>
+      <c r="B12" s="123" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" s="121"/>
       <c r="D12" s="110"/>
       <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" s="47"/>
+        <v>343</v>
+      </c>
+      <c r="C13" s="121"/>
       <c r="D13" s="110"/>
       <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="67" t="s">
-        <v>352</v>
-      </c>
-      <c r="C14" s="47"/>
+      <c r="B14" s="123" t="s">
+        <v>344</v>
+      </c>
+      <c r="C14" s="121"/>
       <c r="D14" s="110"/>
       <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="46" t="s">
-        <v>353</v>
-      </c>
-      <c r="C15" s="47"/>
+        <v>345</v>
+      </c>
+      <c r="C15" s="121"/>
       <c r="D15" s="110"/>
       <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="C16" s="47"/>
+        <v>346</v>
+      </c>
+      <c r="C16" s="124"/>
       <c r="D16" s="110"/>
       <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" s="47"/>
+        <v>347</v>
+      </c>
+      <c r="C17" s="121"/>
       <c r="D17" s="110"/>
       <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="B18" s="67" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="47"/>
+      <c r="B18" s="123" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="121"/>
       <c r="D18" s="110"/>
       <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" s="47"/>
+        <v>349</v>
+      </c>
+      <c r="C19" s="121"/>
       <c r="D19" s="68" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="46" t="s">
-        <v>359</v>
-      </c>
-      <c r="C20" s="47"/>
+        <v>351</v>
+      </c>
+      <c r="C20" s="121"/>
       <c r="D20" s="110" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" customHeight="1">
-      <c r="B21" s="67" t="s">
-        <v>361</v>
-      </c>
-      <c r="C21" s="47"/>
+      <c r="B21" s="123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="121"/>
       <c r="D21" s="110"/>
       <c r="E21" s="48"/>
     </row>
     <row r="22" spans="1:6" ht="19.5" customHeight="1">
       <c r="B22" s="46" t="s">
-        <v>362</v>
-      </c>
-      <c r="C22" s="47"/>
+        <v>354</v>
+      </c>
+      <c r="C22" s="121"/>
       <c r="D22" s="110"/>
       <c r="E22" s="48"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" customHeight="1">
       <c r="B23" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="C23" s="47"/>
+        <v>355</v>
+      </c>
+      <c r="C23" s="121"/>
       <c r="D23" s="110"/>
       <c r="E23" s="48"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" customHeight="1">
       <c r="B24" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="C24" s="47"/>
+        <v>356</v>
+      </c>
+      <c r="C24" s="124"/>
       <c r="D24" s="110"/>
       <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:6" ht="19.5" customHeight="1">
-      <c r="B25" s="67" t="s">
-        <v>365</v>
-      </c>
-      <c r="C25" s="47"/>
+      <c r="B25" s="123" t="s">
+        <v>357</v>
+      </c>
+      <c r="C25" s="121"/>
       <c r="D25" s="110"/>
       <c r="E25" s="48"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1">
       <c r="B26" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="C26" s="47"/>
+        <v>358</v>
+      </c>
+      <c r="C26" s="121"/>
       <c r="D26" s="110"/>
       <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:6" ht="19.5" customHeight="1">
-      <c r="B27" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="C27" s="47"/>
+      <c r="B27" s="123" t="s">
+        <v>359</v>
+      </c>
+      <c r="C27" s="121"/>
       <c r="D27" s="110"/>
       <c r="E27" s="48"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" customHeight="1">
       <c r="B28" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="C28" s="47"/>
+        <v>360</v>
+      </c>
+      <c r="C28" s="121"/>
       <c r="D28" s="110"/>
       <c r="E28" s="48"/>
     </row>
     <row r="29" spans="1:6" ht="19.5" customHeight="1">
       <c r="B29" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="C29" s="47"/>
+        <v>361</v>
+      </c>
+      <c r="C29" s="121"/>
       <c r="D29" s="110"/>
       <c r="E29" s="48"/>
     </row>
     <row r="30" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A30" s="41"/>
       <c r="B30" s="42" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="42"/>
@@ -8050,416 +7933,414 @@
     <row r="31" spans="1:6" s="70" customFormat="1">
       <c r="A31" s="32"/>
       <c r="B31" s="69" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D31" s="71"/>
       <c r="F31" s="72"/>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="67" t="s">
-        <v>372</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="110" t="s">
-        <v>373</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C32" s="121"/>
+      <c r="D32" s="110"/>
       <c r="E32" s="48"/>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="C33" s="47"/>
+        <v>366</v>
+      </c>
+      <c r="C33" s="121"/>
       <c r="D33" s="110"/>
       <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="67" t="s">
-        <v>375</v>
-      </c>
-      <c r="C34" s="47"/>
+        <v>367</v>
+      </c>
+      <c r="C34" s="121"/>
       <c r="D34" s="110"/>
       <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="67" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="47"/>
+        <v>368</v>
+      </c>
+      <c r="C35" s="121"/>
       <c r="D35" s="110"/>
       <c r="E35" s="48"/>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="67" t="s">
-        <v>377</v>
-      </c>
-      <c r="C36" s="47"/>
+        <v>369</v>
+      </c>
+      <c r="C36" s="124"/>
       <c r="D36" s="110"/>
       <c r="E36" s="48"/>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="C37" s="47"/>
+        <v>370</v>
+      </c>
+      <c r="C37" s="121"/>
       <c r="D37" s="110"/>
       <c r="E37" s="48"/>
     </row>
     <row r="38" spans="1:6">
       <c r="B38" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="C38" s="47"/>
+        <v>371</v>
+      </c>
+      <c r="C38" s="121"/>
       <c r="D38" s="110"/>
       <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="46" t="s">
-        <v>380</v>
-      </c>
-      <c r="C39" s="47"/>
+        <v>372</v>
+      </c>
+      <c r="C39" s="121"/>
       <c r="D39" s="110"/>
       <c r="E39" s="48"/>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C40" s="47"/>
+        <v>373</v>
+      </c>
+      <c r="C40" s="121"/>
       <c r="D40" s="110"/>
       <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="67" t="s">
-        <v>382</v>
-      </c>
-      <c r="C41" s="47"/>
+        <v>374</v>
+      </c>
+      <c r="C41" s="121"/>
       <c r="D41" s="110"/>
       <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="67" t="s">
-        <v>383</v>
-      </c>
-      <c r="C42" s="47"/>
+        <v>375</v>
+      </c>
+      <c r="C42" s="121"/>
       <c r="D42" s="110" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E42" s="48"/>
     </row>
     <row r="43" spans="1:6" ht="18.75" customHeight="1">
       <c r="B43" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="C43" s="47"/>
+        <v>377</v>
+      </c>
+      <c r="C43" s="121"/>
       <c r="D43" s="110"/>
       <c r="E43" s="48"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1">
       <c r="B44" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="C44" s="47"/>
+        <v>371</v>
+      </c>
+      <c r="C44" s="121"/>
       <c r="D44" s="110"/>
       <c r="E44" s="48"/>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="46" t="s">
-        <v>380</v>
-      </c>
-      <c r="C45" s="47"/>
+        <v>372</v>
+      </c>
+      <c r="C45" s="121"/>
       <c r="D45" s="110"/>
       <c r="E45" s="48"/>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="C46" s="47"/>
+        <v>378</v>
+      </c>
+      <c r="C46" s="121"/>
       <c r="D46" s="110"/>
       <c r="E46" s="48"/>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="C47" s="47"/>
+        <v>379</v>
+      </c>
+      <c r="C47" s="121"/>
       <c r="D47" s="110"/>
       <c r="E47" s="48"/>
     </row>
     <row r="48" spans="1:6" s="70" customFormat="1">
       <c r="A48" s="32"/>
       <c r="B48" s="69" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D48" s="71"/>
       <c r="F48" s="72"/>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="67" t="s">
-        <v>389</v>
-      </c>
-      <c r="C49" s="47"/>
+        <v>381</v>
+      </c>
+      <c r="C49" s="121"/>
       <c r="D49" s="110"/>
       <c r="E49" s="48"/>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="C50" s="47"/>
+        <v>382</v>
+      </c>
+      <c r="C50" s="121"/>
       <c r="D50" s="110"/>
       <c r="E50" s="48"/>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" s="67" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" s="47"/>
+        <v>383</v>
+      </c>
+      <c r="C51" s="121"/>
       <c r="D51" s="110"/>
       <c r="E51" s="48"/>
     </row>
     <row r="52" spans="1:6" ht="30">
       <c r="B52" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="C52" s="47"/>
+        <v>384</v>
+      </c>
+      <c r="C52" s="121"/>
       <c r="D52" s="110"/>
       <c r="E52" s="48"/>
     </row>
     <row r="53" spans="1:6">
       <c r="B53" s="67" t="s">
-        <v>372</v>
-      </c>
-      <c r="C53" s="47"/>
+        <v>364</v>
+      </c>
+      <c r="C53" s="121"/>
       <c r="D53" s="110" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:6">
       <c r="B54" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="C54" s="47"/>
+        <v>366</v>
+      </c>
+      <c r="C54" s="121"/>
       <c r="D54" s="110"/>
       <c r="E54" s="48"/>
     </row>
     <row r="55" spans="1:6" s="70" customFormat="1">
       <c r="A55" s="32"/>
       <c r="B55" s="69" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D55" s="71" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F55" s="72"/>
     </row>
     <row r="56" spans="1:6">
       <c r="B56" s="67" t="s">
-        <v>372</v>
-      </c>
-      <c r="C56" s="47"/>
+        <v>364</v>
+      </c>
+      <c r="C56" s="121"/>
       <c r="D56" s="110"/>
       <c r="E56" s="48"/>
     </row>
     <row r="57" spans="1:6">
       <c r="B57" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="C57" s="47"/>
+        <v>366</v>
+      </c>
+      <c r="C57" s="121"/>
       <c r="D57" s="110"/>
       <c r="E57" s="48"/>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" s="67" t="s">
-        <v>375</v>
-      </c>
-      <c r="C58" s="47"/>
+        <v>367</v>
+      </c>
+      <c r="C58" s="121"/>
       <c r="D58" s="110"/>
       <c r="E58" s="48"/>
     </row>
     <row r="59" spans="1:6">
       <c r="B59" s="67" t="s">
-        <v>376</v>
-      </c>
-      <c r="C59" s="47"/>
+        <v>368</v>
+      </c>
+      <c r="C59" s="121"/>
       <c r="D59" s="110"/>
       <c r="E59" s="48"/>
     </row>
     <row r="60" spans="1:6">
       <c r="B60" s="67" t="s">
-        <v>377</v>
-      </c>
-      <c r="C60" s="47"/>
+        <v>369</v>
+      </c>
+      <c r="C60" s="124"/>
       <c r="D60" s="110"/>
       <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="C61" s="47"/>
+        <v>370</v>
+      </c>
+      <c r="C61" s="121"/>
       <c r="D61" s="110"/>
       <c r="E61" s="48"/>
     </row>
     <row r="62" spans="1:6">
       <c r="B62" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="C62" s="47"/>
+        <v>371</v>
+      </c>
+      <c r="C62" s="121"/>
       <c r="D62" s="110"/>
       <c r="E62" s="48"/>
     </row>
     <row r="63" spans="1:6">
       <c r="B63" s="46" t="s">
-        <v>380</v>
-      </c>
-      <c r="C63" s="47"/>
+        <v>372</v>
+      </c>
+      <c r="C63" s="121"/>
       <c r="D63" s="110"/>
       <c r="E63" s="48"/>
     </row>
     <row r="64" spans="1:6">
       <c r="B64" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C64" s="47"/>
+        <v>373</v>
+      </c>
+      <c r="C64" s="121"/>
       <c r="D64" s="110"/>
       <c r="E64" s="48"/>
     </row>
     <row r="65" spans="1:6">
       <c r="B65" s="67" t="s">
-        <v>382</v>
-      </c>
-      <c r="C65" s="47"/>
+        <v>374</v>
+      </c>
+      <c r="C65" s="121"/>
       <c r="D65" s="110"/>
       <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:6">
       <c r="B66" s="67" t="s">
-        <v>383</v>
-      </c>
-      <c r="C66" s="47"/>
+        <v>375</v>
+      </c>
+      <c r="C66" s="121"/>
       <c r="D66" s="110"/>
       <c r="E66" s="48"/>
     </row>
     <row r="67" spans="1:6">
       <c r="B67" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="C67" s="47"/>
+        <v>377</v>
+      </c>
+      <c r="C67" s="121"/>
       <c r="D67" s="110"/>
       <c r="E67" s="48"/>
     </row>
     <row r="68" spans="1:6">
       <c r="B68" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="C68" s="47"/>
+        <v>371</v>
+      </c>
+      <c r="C68" s="121"/>
       <c r="D68" s="110"/>
       <c r="E68" s="48"/>
     </row>
     <row r="69" spans="1:6">
       <c r="B69" s="46" t="s">
-        <v>380</v>
-      </c>
-      <c r="C69" s="47"/>
+        <v>372</v>
+      </c>
+      <c r="C69" s="121"/>
       <c r="D69" s="110"/>
       <c r="E69" s="48"/>
     </row>
     <row r="70" spans="1:6">
       <c r="B70" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="C70" s="47"/>
+        <v>379</v>
+      </c>
+      <c r="C70" s="121"/>
       <c r="D70" s="110"/>
       <c r="E70" s="48"/>
     </row>
     <row r="71" spans="1:6">
       <c r="B71" s="67" t="s">
-        <v>395</v>
-      </c>
-      <c r="C71" s="47"/>
+        <v>387</v>
+      </c>
+      <c r="C71" s="121"/>
       <c r="D71" s="110"/>
       <c r="E71" s="48"/>
     </row>
     <row r="72" spans="1:6" s="70" customFormat="1">
       <c r="A72" s="32"/>
       <c r="B72" s="69" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D72" s="71"/>
       <c r="F72" s="72"/>
     </row>
     <row r="73" spans="1:6">
       <c r="B73" s="67" t="s">
-        <v>397</v>
-      </c>
-      <c r="C73" s="47"/>
+        <v>389</v>
+      </c>
+      <c r="C73" s="121"/>
       <c r="D73" s="110"/>
       <c r="E73" s="48"/>
     </row>
     <row r="74" spans="1:6">
       <c r="B74" s="67" t="s">
-        <v>398</v>
-      </c>
-      <c r="C74" s="47"/>
+        <v>390</v>
+      </c>
+      <c r="C74" s="121"/>
       <c r="D74" s="110"/>
       <c r="E74" s="48"/>
     </row>
     <row r="75" spans="1:6">
       <c r="B75" s="67" t="s">
-        <v>399</v>
-      </c>
-      <c r="C75" s="47"/>
+        <v>391</v>
+      </c>
+      <c r="C75" s="121"/>
       <c r="D75" s="110"/>
       <c r="E75" s="48"/>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="67" t="s">
-        <v>400</v>
-      </c>
-      <c r="C76" s="47"/>
+        <v>392</v>
+      </c>
+      <c r="C76" s="121"/>
       <c r="D76" s="110"/>
       <c r="E76" s="48"/>
     </row>
     <row r="77" spans="1:6">
       <c r="B77" s="67" t="s">
-        <v>401</v>
-      </c>
-      <c r="C77" s="47"/>
+        <v>393</v>
+      </c>
+      <c r="C77" s="121"/>
       <c r="D77" s="110"/>
       <c r="E77" s="48"/>
     </row>
     <row r="78" spans="1:6">
       <c r="B78" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="C78" s="47"/>
+        <v>394</v>
+      </c>
+      <c r="C78" s="121"/>
       <c r="D78" s="110"/>
       <c r="E78" s="48"/>
     </row>
     <row r="79" spans="1:6">
       <c r="B79" s="67" t="s">
-        <v>403</v>
-      </c>
-      <c r="C79" s="47"/>
+        <v>395</v>
+      </c>
+      <c r="C79" s="121"/>
       <c r="D79" s="110"/>
       <c r="E79" s="48"/>
     </row>
     <row r="80" spans="1:6" s="70" customFormat="1">
       <c r="A80" s="32"/>
       <c r="B80" s="73" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D80" s="71" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F80" s="72"/>
     </row>
     <row r="81" spans="1:5">
       <c r="B81" s="67" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C81" s="74"/>
       <c r="D81" s="110"/>
@@ -8468,7 +8349,7 @@
     <row r="82" spans="1:5">
       <c r="A82" s="75"/>
       <c r="B82" s="67" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C82" s="74"/>
       <c r="D82" s="110"/>
@@ -8477,7 +8358,7 @@
     <row r="83" spans="1:5">
       <c r="A83" s="75"/>
       <c r="B83" s="67" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C83" s="74"/>
       <c r="D83" s="110"/>
@@ -8486,7 +8367,7 @@
     <row r="84" spans="1:5">
       <c r="A84" s="75"/>
       <c r="B84" s="67" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C84" s="74"/>
       <c r="D84" s="110"/>
@@ -8495,7 +8376,7 @@
     <row r="85" spans="1:5">
       <c r="A85" s="75"/>
       <c r="B85" s="67" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C85" s="74"/>
       <c r="D85" s="110"/>
@@ -8504,7 +8385,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="75"/>
       <c r="B86" s="67" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C86" s="74"/>
       <c r="D86" s="110"/>
@@ -8513,7 +8394,7 @@
     <row r="87" spans="1:5">
       <c r="A87" s="75"/>
       <c r="B87" s="46" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C87" s="74"/>
       <c r="D87" s="110"/>
@@ -8522,7 +8403,7 @@
     <row r="88" spans="1:5">
       <c r="A88" s="75"/>
       <c r="B88" s="46" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C88" s="74"/>
       <c r="D88" s="110"/>
@@ -8531,7 +8412,7 @@
     <row r="89" spans="1:5">
       <c r="A89" s="75"/>
       <c r="B89" s="46" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C89" s="74"/>
       <c r="D89" s="110"/>
@@ -8540,7 +8421,7 @@
     <row r="90" spans="1:5">
       <c r="A90" s="75"/>
       <c r="B90" s="67" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C90" s="74"/>
       <c r="D90" s="110"/>
@@ -8549,7 +8430,7 @@
     <row r="91" spans="1:5">
       <c r="A91" s="75"/>
       <c r="B91" s="67" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C91" s="74"/>
       <c r="D91" s="110"/>
@@ -8558,7 +8439,7 @@
     <row r="92" spans="1:5">
       <c r="A92" s="75"/>
       <c r="B92" s="67" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C92" s="74"/>
       <c r="D92" s="110"/>
@@ -8567,7 +8448,7 @@
     <row r="93" spans="1:5">
       <c r="A93" s="75"/>
       <c r="B93" s="46" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C93" s="74"/>
       <c r="D93" s="110"/>
@@ -8576,7 +8457,7 @@
     <row r="94" spans="1:5">
       <c r="A94" s="75"/>
       <c r="B94" s="46" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C94" s="74"/>
       <c r="D94" s="110"/>
@@ -8585,7 +8466,7 @@
     <row r="95" spans="1:5">
       <c r="A95" s="75"/>
       <c r="B95" s="67" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C95" s="74"/>
       <c r="D95" s="110"/>
@@ -8593,7 +8474,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="B96" s="67" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C96" s="74"/>
       <c r="D96" s="110"/>
@@ -8601,7 +8482,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="B97" s="76" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C97" s="47"/>
       <c r="D97" s="110"/>
@@ -8610,83 +8491,83 @@
     <row r="98" spans="1:6" s="70" customFormat="1">
       <c r="A98" s="32"/>
       <c r="B98" s="73" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D98" s="71"/>
       <c r="F98" s="72"/>
     </row>
     <row r="99" spans="1:6">
       <c r="B99" s="67" t="s">
-        <v>397</v>
-      </c>
-      <c r="C99" s="47"/>
+        <v>389</v>
+      </c>
+      <c r="C99" s="121"/>
       <c r="D99" s="110"/>
       <c r="E99" s="48"/>
     </row>
     <row r="100" spans="1:6">
       <c r="B100" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="C100" s="47"/>
+        <v>394</v>
+      </c>
+      <c r="C100" s="121"/>
       <c r="D100" s="110"/>
       <c r="E100" s="48"/>
     </row>
     <row r="101" spans="1:6">
       <c r="B101" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="C101" s="47"/>
+        <v>395</v>
+      </c>
+      <c r="C101" s="121"/>
       <c r="D101" s="110"/>
       <c r="E101" s="48"/>
     </row>
     <row r="102" spans="1:6" ht="30">
       <c r="B102" s="67" t="s">
-        <v>407</v>
-      </c>
-      <c r="C102" s="74"/>
+        <v>399</v>
+      </c>
+      <c r="C102" s="125"/>
       <c r="D102" s="110"/>
       <c r="E102" s="48"/>
     </row>
     <row r="103" spans="1:6">
       <c r="B103" s="76" t="s">
-        <v>408</v>
-      </c>
-      <c r="C103" s="47"/>
+        <v>400</v>
+      </c>
+      <c r="C103" s="121"/>
       <c r="D103" s="110"/>
       <c r="E103" s="48"/>
     </row>
     <row r="104" spans="1:6">
       <c r="B104" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="C104" s="47"/>
+        <v>401</v>
+      </c>
+      <c r="C104" s="121"/>
       <c r="D104" s="110"/>
       <c r="E104" s="48"/>
     </row>
     <row r="105" spans="1:6">
       <c r="B105" s="67" t="s">
-        <v>410</v>
-      </c>
-      <c r="C105" s="47"/>
+        <v>402</v>
+      </c>
+      <c r="C105" s="121"/>
       <c r="D105" s="110" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E105" s="48"/>
     </row>
     <row r="106" spans="1:6" s="70" customFormat="1" ht="30">
       <c r="A106" s="32"/>
       <c r="B106" s="73" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D106" s="71" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F106" s="72"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="78"/>
       <c r="B107" s="67" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C107" s="74"/>
       <c r="D107" s="110"/>
@@ -8695,7 +8576,7 @@
     <row r="108" spans="1:6">
       <c r="A108" s="78"/>
       <c r="B108" s="67" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C108" s="74"/>
       <c r="D108" s="110"/>
@@ -8704,7 +8585,7 @@
     <row r="109" spans="1:6">
       <c r="A109" s="78"/>
       <c r="B109" s="67" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C109" s="74"/>
       <c r="D109" s="110"/>
@@ -8713,7 +8594,7 @@
     <row r="110" spans="1:6">
       <c r="A110" s="78"/>
       <c r="B110" s="67" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C110" s="74"/>
       <c r="D110" s="110"/>
@@ -8722,7 +8603,7 @@
     <row r="111" spans="1:6">
       <c r="A111" s="78"/>
       <c r="B111" s="67" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C111" s="74"/>
       <c r="D111" s="110"/>
@@ -8731,7 +8612,7 @@
     <row r="112" spans="1:6">
       <c r="A112" s="78"/>
       <c r="B112" s="67" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C112" s="74"/>
       <c r="D112" s="110"/>
@@ -8740,7 +8621,7 @@
     <row r="113" spans="1:5">
       <c r="A113" s="78"/>
       <c r="B113" s="46" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C113" s="74"/>
       <c r="D113" s="110"/>
@@ -8749,7 +8630,7 @@
     <row r="114" spans="1:5">
       <c r="A114" s="78"/>
       <c r="B114" s="46" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C114" s="74"/>
       <c r="D114" s="110"/>
@@ -8758,7 +8639,7 @@
     <row r="115" spans="1:5">
       <c r="A115" s="78"/>
       <c r="B115" s="46" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C115" s="74"/>
       <c r="D115" s="110"/>
@@ -8767,7 +8648,7 @@
     <row r="116" spans="1:5">
       <c r="A116" s="78"/>
       <c r="B116" s="67" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C116" s="74"/>
       <c r="D116" s="110"/>
@@ -8775,7 +8656,7 @@
     <row r="117" spans="1:5">
       <c r="A117" s="78"/>
       <c r="B117" s="67" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C117" s="74"/>
       <c r="D117" s="110"/>
@@ -8784,7 +8665,7 @@
     <row r="118" spans="1:5">
       <c r="A118" s="78"/>
       <c r="B118" s="67" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C118" s="74"/>
       <c r="D118" s="110"/>
@@ -8793,7 +8674,7 @@
     <row r="119" spans="1:5">
       <c r="A119" s="78"/>
       <c r="B119" s="46" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C119" s="74"/>
       <c r="D119" s="110"/>
@@ -8802,7 +8683,7 @@
     <row r="120" spans="1:5">
       <c r="A120" s="78"/>
       <c r="B120" s="46" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C120" s="74"/>
       <c r="D120" s="110"/>
@@ -8811,7 +8692,7 @@
     <row r="121" spans="1:5">
       <c r="A121" s="78"/>
       <c r="B121" s="67" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C121" s="74"/>
       <c r="D121" s="110"/>
@@ -8820,7 +8701,7 @@
     <row r="122" spans="1:5">
       <c r="A122" s="78"/>
       <c r="B122" s="67" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C122" s="74"/>
       <c r="D122" s="110"/>
@@ -8828,7 +8709,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="B123" s="76" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C123" s="47"/>
       <c r="D123" s="110"/>
@@ -8836,7 +8717,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="B124" s="79" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C124" s="47"/>
       <c r="D124" s="110"/>
@@ -8844,7 +8725,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="B125" s="73" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C125" s="70"/>
       <c r="D125" s="71"/>
@@ -8852,7 +8733,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="B126" s="67" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C126" s="47"/>
       <c r="D126" s="110"/>
@@ -8860,7 +8741,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="B127" s="67" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C127" s="47"/>
       <c r="D127" s="110"/>
@@ -8868,7 +8749,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="B128" s="77" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C128" s="47"/>
       <c r="D128" s="110"/>
@@ -8876,7 +8757,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="B129" s="67" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C129" s="47"/>
       <c r="D129" s="110"/>
@@ -8884,7 +8765,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="B130" s="67" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C130" s="47"/>
       <c r="D130" s="110"/>
@@ -8892,17 +8773,17 @@
     </row>
     <row r="131" spans="1:6">
       <c r="B131" s="67" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C131" s="47"/>
       <c r="D131" s="110" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E131" s="48"/>
     </row>
     <row r="132" spans="1:6">
       <c r="B132" s="77" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C132" s="47"/>
       <c r="D132" s="110"/>
@@ -8911,14 +8792,14 @@
     <row r="133" spans="1:6" s="70" customFormat="1">
       <c r="A133" s="32"/>
       <c r="B133" s="73" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D133" s="71"/>
       <c r="F133" s="72"/>
     </row>
     <row r="134" spans="1:6">
       <c r="B134" s="67" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C134" s="74"/>
       <c r="D134" s="110"/>
@@ -8926,7 +8807,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="B135" s="67" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C135" s="74"/>
       <c r="D135" s="110"/>
@@ -8934,7 +8815,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="B136" s="67" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C136" s="74"/>
       <c r="D136" s="110"/>
@@ -8942,7 +8823,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="B137" s="67" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C137" s="74"/>
       <c r="D137" s="110"/>
@@ -8950,7 +8831,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="B138" s="67" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C138" s="74"/>
       <c r="D138" s="110"/>
@@ -8958,7 +8839,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="B139" s="67" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C139" s="74"/>
       <c r="D139" s="110"/>
@@ -8966,7 +8847,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="B140" s="46" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C140" s="74"/>
       <c r="D140" s="110"/>
@@ -8974,7 +8855,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="B141" s="46" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C141" s="74"/>
       <c r="D141" s="110"/>
@@ -8982,7 +8863,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="B142" s="46" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C142" s="74"/>
       <c r="D142" s="110"/>
@@ -8990,7 +8871,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="B143" s="67" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C143" s="74"/>
       <c r="D143" s="110"/>
@@ -8998,7 +8879,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="B144" s="67" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C144" s="74"/>
       <c r="D144" s="110"/>
@@ -9006,7 +8887,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="B145" s="67" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C145" s="74"/>
       <c r="D145" s="110"/>
@@ -9014,7 +8895,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="B146" s="46" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C146" s="74"/>
       <c r="D146" s="110"/>
@@ -9022,7 +8903,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="B147" s="46" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C147" s="74"/>
       <c r="D147" s="110"/>
@@ -9030,7 +8911,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="B148" s="67" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C148" s="74"/>
       <c r="D148" s="110"/>
@@ -9038,7 +8919,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="B149" s="67" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C149" s="74"/>
       <c r="D149" s="110"/>
@@ -9046,7 +8927,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="B150" s="76" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C150" s="47"/>
       <c r="D150" s="110"/>
@@ -9054,7 +8935,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="B151" s="79" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C151" s="47"/>
       <c r="D151" s="110"/>
@@ -9062,7 +8943,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="B152" s="73" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C152" s="70"/>
       <c r="D152" s="71"/>
@@ -9070,7 +8951,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="B153" s="67" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C153" s="47"/>
       <c r="D153" s="110"/>
@@ -9078,7 +8959,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="B154" s="67" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C154" s="47"/>
       <c r="D154" s="110"/>
@@ -9086,7 +8967,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="B155" s="77" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C155" s="80"/>
       <c r="D155" s="81"/>
@@ -9094,30 +8975,30 @@
     </row>
     <row r="156" spans="1:6">
       <c r="B156" s="67" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C156" s="47"/>
       <c r="D156" s="110"/>
     </row>
     <row r="157" spans="1:6">
       <c r="B157" s="67" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C157" s="47"/>
       <c r="D157" s="110"/>
     </row>
     <row r="158" spans="1:6">
       <c r="B158" s="67" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C158" s="47"/>
       <c r="D158" s="110" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="B159" s="67" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C159" s="47"/>
       <c r="D159" s="110"/>
@@ -9125,7 +9006,7 @@
     <row r="160" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A160" s="41"/>
       <c r="B160" s="42" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C160" s="43"/>
       <c r="D160" s="42"/>
@@ -9134,26 +9015,26 @@
     </row>
     <row r="161" spans="1:6">
       <c r="B161" s="67" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C161" s="47"/>
       <c r="D161" s="110" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="B162" s="67" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C162" s="47"/>
       <c r="D162" s="110" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A163" s="41"/>
       <c r="B163" s="42" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C163" s="43"/>
       <c r="D163" s="42"/>
@@ -9162,43 +9043,43 @@
     </row>
     <row r="164" spans="1:6" ht="30">
       <c r="B164" s="67" t="s">
-        <v>430</v>
-      </c>
-      <c r="C164" s="47"/>
+        <v>422</v>
+      </c>
+      <c r="C164" s="121"/>
       <c r="D164" s="110"/>
     </row>
     <row r="165" spans="1:6" ht="45">
       <c r="B165" s="67" t="s">
-        <v>431</v>
-      </c>
-      <c r="C165" s="47"/>
+        <v>423</v>
+      </c>
+      <c r="C165" s="121"/>
       <c r="D165" s="110"/>
     </row>
     <row r="166" spans="1:6">
       <c r="B166" s="46" t="s">
-        <v>432</v>
-      </c>
-      <c r="C166" s="47"/>
+        <v>424</v>
+      </c>
+      <c r="C166" s="121"/>
       <c r="D166" s="110"/>
     </row>
     <row r="167" spans="1:6">
       <c r="B167" s="46" t="s">
-        <v>433</v>
-      </c>
-      <c r="C167" s="47"/>
+        <v>425</v>
+      </c>
+      <c r="C167" s="121"/>
       <c r="D167" s="110"/>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1">
       <c r="B168" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="C168" s="47"/>
+        <v>426</v>
+      </c>
+      <c r="C168" s="121"/>
       <c r="D168" s="110"/>
     </row>
     <row r="169" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A169" s="41"/>
       <c r="B169" s="42" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C169" s="43"/>
       <c r="D169" s="42"/>
@@ -9207,50 +9088,50 @@
     </row>
     <row r="170" spans="1:6" ht="32.25" customHeight="1">
       <c r="B170" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="C170" s="47"/>
+        <v>428</v>
+      </c>
+      <c r="C170" s="121"/>
       <c r="D170" s="110"/>
     </row>
     <row r="171" spans="1:6">
       <c r="B171" s="67" t="s">
-        <v>437</v>
-      </c>
-      <c r="C171" s="47"/>
+        <v>429</v>
+      </c>
+      <c r="C171" s="121"/>
       <c r="D171" s="110"/>
     </row>
     <row r="172" spans="1:6">
       <c r="B172" s="67" t="s">
-        <v>438</v>
-      </c>
-      <c r="C172" s="47"/>
+        <v>430</v>
+      </c>
+      <c r="C172" s="121"/>
       <c r="D172" s="110"/>
     </row>
     <row r="173" spans="1:6">
       <c r="B173" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="C173" s="47"/>
+        <v>431</v>
+      </c>
+      <c r="C173" s="121"/>
       <c r="D173" s="110"/>
     </row>
     <row r="174" spans="1:6">
       <c r="B174" s="67" t="s">
-        <v>440</v>
-      </c>
-      <c r="C174" s="47"/>
+        <v>432</v>
+      </c>
+      <c r="C174" s="121"/>
       <c r="D174" s="110"/>
     </row>
     <row r="175" spans="1:6">
       <c r="B175" s="67" t="s">
-        <v>441</v>
-      </c>
-      <c r="C175" s="47"/>
+        <v>433</v>
+      </c>
+      <c r="C175" s="121"/>
       <c r="D175" s="110"/>
     </row>
     <row r="176" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A176" s="41"/>
       <c r="B176" s="42" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C176" s="43"/>
       <c r="D176" s="42"/>
@@ -9259,89 +9140,89 @@
     </row>
     <row r="177" spans="1:6">
       <c r="B177" s="67" t="s">
-        <v>443</v>
-      </c>
-      <c r="C177" s="47"/>
+        <v>435</v>
+      </c>
+      <c r="C177" s="121"/>
       <c r="D177" s="110"/>
     </row>
     <row r="178" spans="1:6">
       <c r="B178" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="C178" s="47"/>
+        <v>436</v>
+      </c>
+      <c r="C178" s="121"/>
       <c r="D178" s="110"/>
     </row>
     <row r="179" spans="1:6">
       <c r="B179" s="46" t="s">
-        <v>445</v>
-      </c>
-      <c r="C179" s="47"/>
+        <v>437</v>
+      </c>
+      <c r="C179" s="121"/>
       <c r="D179" s="110"/>
     </row>
     <row r="180" spans="1:6">
       <c r="B180" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="C180" s="47"/>
+        <v>438</v>
+      </c>
+      <c r="C180" s="121"/>
       <c r="D180" s="110"/>
     </row>
     <row r="181" spans="1:6">
       <c r="B181" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="C181" s="47"/>
+        <v>439</v>
+      </c>
+      <c r="C181" s="121"/>
       <c r="D181" s="110" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="19.5" customHeight="1">
       <c r="B182" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="C182" s="47"/>
+        <v>441</v>
+      </c>
+      <c r="C182" s="121"/>
       <c r="D182" s="110"/>
     </row>
     <row r="183" spans="1:6" ht="30">
       <c r="B183" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="C183" s="47"/>
+        <v>442</v>
+      </c>
+      <c r="C183" s="121"/>
       <c r="D183" s="55" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="B184" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C184" s="47"/>
+        <v>444</v>
+      </c>
+      <c r="C184" s="121"/>
       <c r="D184" s="110"/>
     </row>
     <row r="185" spans="1:6">
       <c r="B185" s="67" t="s">
-        <v>453</v>
-      </c>
-      <c r="C185" s="47"/>
+        <v>445</v>
+      </c>
+      <c r="C185" s="121"/>
       <c r="D185" s="110"/>
     </row>
     <row r="186" spans="1:6" ht="30">
       <c r="B186" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="C186" s="47"/>
+        <v>446</v>
+      </c>
+      <c r="C186" s="121"/>
       <c r="D186" s="110"/>
     </row>
     <row r="187" spans="1:6">
       <c r="B187" s="67" t="s">
-        <v>455</v>
-      </c>
-      <c r="C187" s="47"/>
+        <v>447</v>
+      </c>
+      <c r="C187" s="121"/>
       <c r="D187" s="110"/>
     </row>
     <row r="188" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A188" s="41"/>
       <c r="B188" s="42" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C188" s="43"/>
       <c r="D188" s="42"/>
@@ -9350,15 +9231,15 @@
     </row>
     <row r="189" spans="1:6">
       <c r="B189" s="67" t="s">
-        <v>457</v>
-      </c>
-      <c r="C189" s="47"/>
+        <v>449</v>
+      </c>
+      <c r="C189" s="121"/>
       <c r="D189" s="110"/>
     </row>
     <row r="190" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A190" s="41"/>
       <c r="B190" s="42" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C190" s="43"/>
       <c r="D190" s="42"/>
@@ -9367,35 +9248,35 @@
     </row>
     <row r="191" spans="1:6" ht="17.25" customHeight="1">
       <c r="B191" s="67" t="s">
-        <v>459</v>
-      </c>
-      <c r="C191" s="47"/>
+        <v>451</v>
+      </c>
+      <c r="C191" s="121"/>
       <c r="D191" s="110"/>
     </row>
     <row r="192" spans="1:6" ht="16.5" customHeight="1">
       <c r="B192" s="67" t="s">
-        <v>460</v>
-      </c>
-      <c r="C192" s="47"/>
+        <v>452</v>
+      </c>
+      <c r="C192" s="124"/>
       <c r="D192" s="110"/>
     </row>
     <row r="193" spans="1:6">
       <c r="B193" s="67" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C193" s="47"/>
       <c r="D193" s="110"/>
     </row>
     <row r="194" spans="1:6" ht="45">
       <c r="B194" s="67" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C194" s="47"/>
       <c r="D194" s="110"/>
     </row>
     <row r="195" spans="1:6">
       <c r="B195" s="73" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C195" s="70"/>
       <c r="D195" s="71"/>
@@ -9403,28 +9284,28 @@
     </row>
     <row r="196" spans="1:6" ht="52.5" customHeight="1">
       <c r="B196" s="46" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C196" s="47"/>
       <c r="D196" s="110"/>
     </row>
     <row r="197" spans="1:6" ht="52.5" customHeight="1">
       <c r="B197" s="46" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C197" s="47"/>
       <c r="D197" s="110"/>
     </row>
     <row r="198" spans="1:6" ht="54" customHeight="1">
       <c r="B198" s="46" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C198" s="47"/>
       <c r="D198" s="110"/>
     </row>
     <row r="199" spans="1:6">
       <c r="B199" s="73" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C199" s="70"/>
       <c r="D199" s="71"/>
@@ -9432,28 +9313,28 @@
     </row>
     <row r="200" spans="1:6" ht="52.5" customHeight="1">
       <c r="B200" s="46" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C200" s="47"/>
       <c r="D200" s="110"/>
     </row>
     <row r="201" spans="1:6" ht="52.5" customHeight="1">
       <c r="B201" s="46" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C201" s="47"/>
       <c r="D201" s="110"/>
     </row>
     <row r="202" spans="1:6" ht="54" customHeight="1">
       <c r="B202" s="46" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C202" s="47"/>
       <c r="D202" s="110"/>
     </row>
     <row r="203" spans="1:6">
       <c r="B203" s="73" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C203" s="70"/>
       <c r="D203" s="71"/>
@@ -9461,33 +9342,33 @@
     </row>
     <row r="204" spans="1:6" ht="30">
       <c r="B204" s="67" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C204" s="47"/>
       <c r="D204" s="110"/>
     </row>
     <row r="205" spans="1:6">
       <c r="B205" s="67" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C205" s="47"/>
       <c r="D205" s="110" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="B206" s="67" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C206" s="47"/>
       <c r="D206" s="110" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A207" s="41"/>
       <c r="B207" s="82" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C207" s="43"/>
       <c r="D207" s="42"/>
@@ -9497,7 +9378,7 @@
     <row r="208" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A208" s="41"/>
       <c r="B208" s="42" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C208" s="43"/>
       <c r="D208" s="42"/>
@@ -9506,107 +9387,107 @@
     </row>
     <row r="209" spans="1:6">
       <c r="B209" s="67" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C209" s="47"/>
       <c r="D209" s="110"/>
     </row>
     <row r="210" spans="1:6">
       <c r="B210" s="67" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C210" s="47"/>
       <c r="D210" s="110" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="B211" s="67" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C211" s="47"/>
       <c r="D211" s="110" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="30">
       <c r="B212" s="67" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C212" s="47"/>
       <c r="D212" s="110" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="B213" s="46" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C213" s="47"/>
       <c r="D213" s="110"/>
     </row>
     <row r="214" spans="1:6">
       <c r="B214" s="46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C214" s="47"/>
       <c r="D214" s="110"/>
     </row>
     <row r="215" spans="1:6">
       <c r="B215" s="46" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C215" s="47"/>
       <c r="D215" s="110"/>
     </row>
     <row r="216" spans="1:6">
       <c r="B216" s="46" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C216" s="47"/>
       <c r="D216" s="110"/>
     </row>
     <row r="217" spans="1:6" ht="18.75" customHeight="1">
       <c r="B217" s="67" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C217" s="47"/>
       <c r="D217" s="110"/>
     </row>
     <row r="218" spans="1:6" ht="34.5" customHeight="1">
       <c r="B218" s="67" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C218" s="47"/>
       <c r="D218" s="110"/>
     </row>
     <row r="219" spans="1:6" ht="30">
       <c r="B219" s="67" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C219" s="47"/>
       <c r="D219" s="110"/>
     </row>
     <row r="220" spans="1:6">
       <c r="B220" s="67" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C220" s="47"/>
       <c r="D220" s="110"/>
     </row>
     <row r="221" spans="1:6">
       <c r="B221" s="67" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C221" s="47"/>
       <c r="D221" s="110" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="222" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1">
       <c r="A222" s="41"/>
       <c r="B222" s="42" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C222" s="43"/>
       <c r="D222" s="42"/>
@@ -9615,7 +9496,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="B223" s="73" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C223" s="70"/>
       <c r="D223" s="71"/>
@@ -9623,16 +9504,16 @@
     </row>
     <row r="224" spans="1:6" ht="30">
       <c r="B224" s="67" t="s">
-        <v>494</v>
-      </c>
-      <c r="C224" s="47"/>
+        <v>486</v>
+      </c>
+      <c r="C224" s="139"/>
       <c r="D224" s="110" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="225" spans="2:5">
       <c r="B225" s="73" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C225" s="70"/>
       <c r="D225" s="71"/>
@@ -9640,505 +9521,505 @@
     </row>
     <row r="226" spans="2:5" ht="30">
       <c r="B226" s="67" t="s">
-        <v>497</v>
-      </c>
-      <c r="C226" s="47"/>
+        <v>489</v>
+      </c>
+      <c r="C226" s="139"/>
       <c r="D226" s="110"/>
     </row>
     <row r="227" spans="2:5" ht="30">
       <c r="B227" s="67" t="s">
-        <v>498</v>
-      </c>
-      <c r="C227" s="47"/>
+        <v>490</v>
+      </c>
+      <c r="C227" s="139"/>
       <c r="D227" s="110"/>
     </row>
     <row r="228" spans="2:5" ht="30">
       <c r="B228" s="67" t="s">
-        <v>499</v>
-      </c>
-      <c r="C228" s="47"/>
+        <v>491</v>
+      </c>
+      <c r="C228" s="139"/>
       <c r="D228" s="55" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229" spans="2:5">
       <c r="B229" s="73" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C229" s="70"/>
       <c r="D229" s="71" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E229" s="48"/>
     </row>
     <row r="230" spans="2:5">
       <c r="B230" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="C230" s="47"/>
+        <v>495</v>
+      </c>
+      <c r="C230" s="139"/>
       <c r="D230" s="110" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231" spans="2:5" ht="30">
       <c r="B231" s="73" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C231" s="70"/>
       <c r="D231" s="71" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E231" s="48"/>
     </row>
     <row r="232" spans="2:5" ht="30">
       <c r="B232" s="67" t="s">
-        <v>507</v>
-      </c>
-      <c r="C232" s="47"/>
+        <v>499</v>
+      </c>
+      <c r="C232" s="139"/>
       <c r="D232" s="110" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="233" spans="2:5" ht="30">
       <c r="B233" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="C233" s="47"/>
+        <v>501</v>
+      </c>
+      <c r="C233" s="139"/>
       <c r="D233" s="110"/>
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="73" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C234" s="70"/>
       <c r="D234" s="71" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E234" s="48"/>
     </row>
     <row r="235" spans="2:5" ht="45">
       <c r="B235" s="67" t="s">
-        <v>512</v>
-      </c>
-      <c r="C235" s="47"/>
+        <v>504</v>
+      </c>
+      <c r="C235" s="139"/>
       <c r="D235" s="110"/>
     </row>
     <row r="236" spans="2:5" ht="45">
       <c r="B236" s="67" t="s">
-        <v>513</v>
-      </c>
-      <c r="C236" s="47"/>
+        <v>505</v>
+      </c>
+      <c r="C236" s="139"/>
       <c r="D236" s="110"/>
     </row>
     <row r="237" spans="2:5">
       <c r="B237" s="73" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C237" s="70"/>
       <c r="D237" s="71" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E237" s="48"/>
     </row>
     <row r="238" spans="2:5" ht="30">
       <c r="B238" s="67" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C238" s="47"/>
       <c r="D238" s="110"/>
     </row>
     <row r="239" spans="2:5" ht="30">
       <c r="B239" s="67" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C239" s="47"/>
       <c r="D239" s="110"/>
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="73" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C240" s="70"/>
       <c r="D240" s="71" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E240" s="48"/>
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="67" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C241" s="47"/>
       <c r="D241" s="110"/>
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="67" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C242" s="47"/>
       <c r="D242" s="110"/>
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="73" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C243" s="70"/>
       <c r="D243" s="71" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E243" s="48"/>
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="67" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C244" s="47"/>
       <c r="D244" s="110"/>
     </row>
     <row r="245" spans="2:5" ht="30">
       <c r="B245" s="46" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C245" s="47"/>
       <c r="D245" s="110"/>
     </row>
     <row r="246" spans="2:5" ht="30">
       <c r="B246" s="46" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C246" s="47"/>
       <c r="D246" s="110"/>
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="67" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C247" s="47"/>
       <c r="D247" s="110"/>
     </row>
     <row r="248" spans="2:5" ht="30">
       <c r="B248" s="46" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C248" s="47"/>
       <c r="D248" s="110"/>
     </row>
     <row r="249" spans="2:5" ht="30">
       <c r="B249" s="46" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C249" s="47"/>
       <c r="D249" s="110"/>
     </row>
     <row r="250" spans="2:5" ht="60">
       <c r="B250" s="67" t="s">
-        <v>527</v>
-      </c>
-      <c r="C250" s="47"/>
+        <v>519</v>
+      </c>
+      <c r="C250" s="121"/>
       <c r="D250" s="55" t="s">
-        <v>528</v>
+        <v>742</v>
       </c>
     </row>
     <row r="251" spans="2:5">
       <c r="B251" s="73" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C251" s="70"/>
       <c r="D251" s="71" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="252" spans="2:5">
       <c r="B252" s="67" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C252" s="47"/>
       <c r="D252" s="110"/>
     </row>
     <row r="253" spans="2:5" ht="30">
       <c r="B253" s="67" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C253" s="47"/>
       <c r="D253" s="110"/>
     </row>
     <row r="254" spans="2:5" ht="30">
       <c r="B254" s="67" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C254" s="47"/>
       <c r="D254" s="110"/>
     </row>
     <row r="255" spans="2:5" ht="30">
       <c r="B255" s="67" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C255" s="47"/>
       <c r="D255" s="110"/>
     </row>
     <row r="256" spans="2:5">
       <c r="B256" s="73" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C256" s="70"/>
       <c r="D256" s="71"/>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="67" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C257" s="47"/>
       <c r="D257" s="110"/>
     </row>
     <row r="258" spans="2:4" ht="30">
       <c r="B258" s="67" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C258" s="47"/>
       <c r="D258" s="110"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" s="67" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C259" s="47"/>
       <c r="D259" s="110"/>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" s="67" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C260" s="47"/>
       <c r="D260" s="110"/>
     </row>
     <row r="261" spans="2:4" ht="30">
       <c r="B261" s="67" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C261" s="47"/>
       <c r="D261" s="110"/>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" s="73" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C262" s="70"/>
       <c r="D262" s="71"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" s="67" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C263" s="47"/>
       <c r="D263" s="110"/>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" s="67" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C264" s="47"/>
       <c r="D264" s="110"/>
     </row>
     <row r="265" spans="2:4" ht="30">
       <c r="B265" s="67" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C265" s="47"/>
       <c r="D265" s="110"/>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" s="73" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C266" s="70"/>
       <c r="D266" s="71"/>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" s="67" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C267" s="47"/>
       <c r="D267" s="110"/>
     </row>
     <row r="268" spans="2:4" ht="30">
       <c r="B268" s="67" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C268" s="47"/>
       <c r="D268" s="110"/>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" s="67" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C269" s="47"/>
       <c r="D269" s="110"/>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" s="67" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C270" s="47"/>
       <c r="D270" s="110"/>
     </row>
     <row r="271" spans="2:4" ht="30">
       <c r="B271" s="67" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C271" s="47"/>
       <c r="D271" s="110"/>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" s="73" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C272" s="70"/>
       <c r="D272" s="71"/>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" s="67" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C273" s="47"/>
       <c r="D273" s="110"/>
     </row>
     <row r="274" spans="2:4">
       <c r="B274" s="67" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C274" s="47"/>
       <c r="D274" s="110"/>
     </row>
     <row r="275" spans="2:4" ht="30">
       <c r="B275" s="67" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C275" s="47"/>
       <c r="D275" s="110"/>
     </row>
     <row r="276" spans="2:4">
       <c r="B276" s="69" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C276" s="70"/>
       <c r="D276" s="71" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" s="67" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C277" s="47"/>
       <c r="D277" s="110" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" s="67" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C278" s="47"/>
       <c r="D278" s="110" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="279" spans="2:4">
       <c r="B279" s="67" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C279" s="47"/>
       <c r="D279" s="110" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" s="67" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C280" s="47"/>
       <c r="D280" s="110" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="281" spans="2:4">
       <c r="B281" s="67" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C281" s="47"/>
       <c r="D281" s="110" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="284" spans="2:4" ht="21">
       <c r="B284" s="83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" s="67" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C285" s="47"/>
       <c r="D285" s="110" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" s="67" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C286" s="47"/>
       <c r="D286" s="110" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" s="67" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C287" s="47"/>
       <c r="D287" s="110" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" s="67" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C288" s="47"/>
       <c r="D288" s="110" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" s="67" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C289" s="47"/>
       <c r="D289" s="110" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" s="67" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C290" s="47"/>
       <c r="D290" s="110" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" s="67" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C291" s="47"/>
       <c r="D291" s="111"/>
     </row>
     <row r="294" spans="2:4" ht="21">
       <c r="B294" s="84" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -10163,7 +10044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -10176,14 +10057,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="B1" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="10"/>
@@ -10207,32 +10088,32 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="124" t="s">
-        <v>565</v>
-      </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
+      <c r="B7" s="134" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="9"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="86" t="s">
@@ -10242,24 +10123,24 @@
         <v>6</v>
       </c>
       <c r="C10" s="113" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="87"/>
       <c r="B11" s="88"/>
       <c r="C11" s="114" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="87"/>
       <c r="B12" s="88" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C12" s="114"/>
       <c r="D12" s="89"/>
@@ -10269,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="88" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C13" s="114"/>
       <c r="D13" s="89"/>
@@ -10277,51 +10158,51 @@
     <row r="14" spans="1:7">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C14" s="91"/>
       <c r="D14" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C15" s="91"/>
       <c r="D15" s="27" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C16" s="91"/>
       <c r="D16" s="27" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="27"/>
       <c r="B17" s="27" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="27" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="27"/>
       <c r="B18" s="27" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C18" s="91"/>
       <c r="D18" s="27" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10329,7 +10210,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="88" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C19" s="114"/>
       <c r="D19" s="89"/>
@@ -10337,7 +10218,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="27"/>
       <c r="B20" s="27" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C20" s="91"/>
       <c r="D20" s="27"/>
@@ -10345,7 +10226,7 @@
     <row r="21" spans="1:4">
       <c r="A21" s="27"/>
       <c r="B21" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="27"/>
@@ -10353,7 +10234,7 @@
     <row r="22" spans="1:4" ht="30">
       <c r="A22" s="27"/>
       <c r="B22" s="15" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C22" s="91"/>
       <c r="D22" s="27"/>
@@ -10361,17 +10242,17 @@
     <row r="23" spans="1:4" ht="25.5" customHeight="1">
       <c r="A23" s="27"/>
       <c r="B23" s="15" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C23" s="91"/>
       <c r="D23" s="15" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="27"/>
       <c r="B24" s="27" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C24" s="91"/>
       <c r="D24" s="15"/>
@@ -10381,17 +10262,17 @@
         <v>3</v>
       </c>
       <c r="B25" s="88" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C25" s="114"/>
       <c r="D25" s="90" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="27"/>
       <c r="B26" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C26" s="91"/>
       <c r="D26" s="27"/>
@@ -10399,7 +10280,7 @@
     <row r="27" spans="1:4">
       <c r="A27" s="27"/>
       <c r="B27" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C27" s="91"/>
       <c r="D27" s="27"/>
@@ -10407,7 +10288,7 @@
     <row r="28" spans="1:4">
       <c r="A28" s="27"/>
       <c r="B28" s="27" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="C28" s="91"/>
       <c r="D28" s="27"/>
@@ -10415,11 +10296,11 @@
     <row r="29" spans="1:4">
       <c r="A29" s="27"/>
       <c r="B29" s="27" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C29" s="91"/>
       <c r="D29" s="27" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -10427,7 +10308,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="88" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C30" s="114"/>
       <c r="D30" s="89"/>
@@ -10435,7 +10316,7 @@
     <row r="31" spans="1:4">
       <c r="A31" s="27"/>
       <c r="B31" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C31" s="91"/>
       <c r="D31" s="27"/>
@@ -10443,17 +10324,17 @@
     <row r="32" spans="1:4">
       <c r="A32" s="27"/>
       <c r="B32" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C32" s="91"/>
       <c r="D32" s="27" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="27"/>
       <c r="B33" s="27" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C33" s="91"/>
       <c r="D33" s="27"/>
@@ -10463,7 +10344,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C34" s="114"/>
       <c r="D34" s="89"/>
@@ -10471,7 +10352,7 @@
     <row r="35" spans="1:4">
       <c r="A35" s="27"/>
       <c r="B35" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C35" s="91"/>
       <c r="D35" s="27"/>
@@ -10479,7 +10360,7 @@
     <row r="36" spans="1:4">
       <c r="A36" s="27"/>
       <c r="B36" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C36" s="91"/>
       <c r="D36" s="27"/>
@@ -10487,17 +10368,17 @@
     <row r="37" spans="1:4" ht="17.25" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="27" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C37" s="91"/>
       <c r="D37" s="15" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="27"/>
       <c r="B38" s="27" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C38" s="91"/>
       <c r="D38" s="27"/>
@@ -10507,17 +10388,17 @@
         <v>6</v>
       </c>
       <c r="B39" s="88" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C39" s="114"/>
       <c r="D39" s="90" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="27"/>
       <c r="B40" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C40" s="91"/>
       <c r="D40" s="27"/>
@@ -10525,7 +10406,7 @@
     <row r="41" spans="1:4">
       <c r="A41" s="27"/>
       <c r="B41" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C41" s="91"/>
       <c r="D41" s="27"/>
@@ -10533,11 +10414,11 @@
     <row r="42" spans="1:4">
       <c r="A42" s="27"/>
       <c r="B42" s="27" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C42" s="91"/>
       <c r="D42" s="27" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="29.25" customHeight="1">
@@ -10545,17 +10426,17 @@
         <v>7</v>
       </c>
       <c r="B43" s="88" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C43" s="114"/>
       <c r="D43" s="90" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="27"/>
       <c r="B44" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C44" s="91"/>
       <c r="D44" s="27"/>
@@ -10563,7 +10444,7 @@
     <row r="45" spans="1:4">
       <c r="A45" s="27"/>
       <c r="B45" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C45" s="91"/>
       <c r="D45" s="27"/>
@@ -10571,11 +10452,11 @@
     <row r="46" spans="1:4">
       <c r="A46" s="27"/>
       <c r="B46" s="27" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C46" s="91"/>
       <c r="D46" s="27" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -10583,7 +10464,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="92" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C47" s="91"/>
       <c r="D47" s="27"/>
@@ -10591,7 +10472,7 @@
     <row r="48" spans="1:4">
       <c r="A48" s="27"/>
       <c r="B48" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C48" s="91"/>
       <c r="D48" s="27"/>
@@ -10599,7 +10480,7 @@
     <row r="49" spans="1:4">
       <c r="A49" s="27"/>
       <c r="B49" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C49" s="91"/>
       <c r="D49" s="27"/>
@@ -10607,11 +10488,11 @@
     <row r="50" spans="1:4">
       <c r="A50" s="27"/>
       <c r="B50" s="27" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C50" s="91"/>
       <c r="D50" s="27" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -10619,7 +10500,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="88" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C51" s="114"/>
       <c r="D51" s="89"/>
@@ -10627,7 +10508,7 @@
     <row r="52" spans="1:4">
       <c r="A52" s="27"/>
       <c r="B52" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C52" s="91"/>
       <c r="D52" s="27"/>
@@ -10635,7 +10516,7 @@
     <row r="53" spans="1:4">
       <c r="A53" s="27"/>
       <c r="B53" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C53" s="91"/>
       <c r="D53" s="27"/>
@@ -10643,11 +10524,11 @@
     <row r="54" spans="1:4">
       <c r="A54" s="27"/>
       <c r="B54" s="27" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C54" s="91"/>
       <c r="D54" s="93" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.5" customHeight="1">
@@ -10655,17 +10536,17 @@
         <v>10</v>
       </c>
       <c r="B55" s="88" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C55" s="114"/>
       <c r="D55" s="90" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="27"/>
       <c r="B56" s="27" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C56" s="91"/>
       <c r="D56" s="27"/>
@@ -10673,7 +10554,7 @@
     <row r="57" spans="1:4">
       <c r="A57" s="27"/>
       <c r="B57" s="27" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C57" s="91"/>
       <c r="D57" s="27"/>
@@ -10681,47 +10562,47 @@
     <row r="58" spans="1:4">
       <c r="A58" s="27"/>
       <c r="B58" s="27" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C58" s="91"/>
       <c r="D58" s="27" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="37.5" customHeight="1">
       <c r="A59" s="87"/>
       <c r="B59" s="88" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C59" s="112"/>
       <c r="D59" s="90" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="41.25" customHeight="1">
       <c r="A60" s="87"/>
       <c r="B60" s="88" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C60" s="112"/>
       <c r="D60" s="90" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="33" customHeight="1">
       <c r="A61" s="87"/>
       <c r="B61" s="94" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C61" s="112"/>
       <c r="D61" s="90" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="87"/>
       <c r="B62" s="95" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C62" s="114"/>
       <c r="D62" s="87"/>
@@ -10729,47 +10610,47 @@
     <row r="63" spans="1:4">
       <c r="A63" s="27"/>
       <c r="B63" s="92" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="C63" s="91"/>
       <c r="D63" s="27" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="27"/>
       <c r="B64" s="92" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C64" s="91"/>
       <c r="D64" s="27" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="27"/>
       <c r="B65" s="92" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="C65" s="91"/>
       <c r="D65" s="27" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" customHeight="1">
       <c r="A66" s="27"/>
       <c r="B66" s="92" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C66" s="91"/>
       <c r="D66" s="15" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="87"/>
       <c r="B67" s="95" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C67" s="114"/>
       <c r="D67" s="87"/>
@@ -10777,7 +10658,7 @@
     <row r="68" spans="1:4">
       <c r="A68" s="27"/>
       <c r="B68" s="27" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -10785,7 +10666,7 @@
     <row r="69" spans="1:4">
       <c r="A69" s="27"/>
       <c r="B69" s="27" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -10793,7 +10674,7 @@
     <row r="70" spans="1:4" ht="45">
       <c r="A70" s="27"/>
       <c r="B70" s="15" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -10811,9 +10692,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I51"/>
+  <dimension ref="B1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -10821,276 +10704,268 @@
     <col min="2" max="2" width="61.140625" style="32" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="32" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="32" customWidth="1"/>
-    <col min="6" max="7" width="17.140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="32" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="32" customWidth="1"/>
     <col min="8" max="8" width="14" style="32" customWidth="1"/>
-    <col min="9" max="9" width="64.42578125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="23.25">
+    <row r="1" spans="2:5" ht="23.25">
       <c r="B1" s="105" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="32" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="32" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="32" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="32" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="C14" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="E14" s="32" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="32" t="s">
+    <row r="15" spans="2:5" s="97" customFormat="1">
+      <c r="B15" s="97" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="32" t="s">
+    <row r="16" spans="2:5" s="98" customFormat="1">
+      <c r="B16" s="98" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="32" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="99" t="s">
+        <v>561</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="32" t="s">
+    <row r="18" spans="2:6" ht="30.75" customHeight="1">
+      <c r="B18" s="100" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="32" t="s">
+    <row r="19" spans="2:6" s="98" customFormat="1">
+      <c r="B19" s="98" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="32" t="s">
+      <c r="F19" s="98" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="C14" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="32" t="s">
+    <row r="20" spans="2:6">
+      <c r="B20" s="99" t="s">
         <v>640</v>
       </c>
-      <c r="E14" s="32" t="s">
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="101" t="s">
         <v>641</v>
       </c>
-      <c r="F14" s="32" t="s">
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="99" t="s">
         <v>642</v>
       </c>
-      <c r="G14" s="32" t="s">
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="101" t="s">
         <v>643</v>
       </c>
-      <c r="H14" s="32" t="s">
+    </row>
+    <row r="24" spans="2:6" s="98" customFormat="1">
+      <c r="B24" s="98" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="97" customFormat="1">
-      <c r="B15" s="97" t="s">
+    <row r="25" spans="2:6">
+      <c r="B25" s="99" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="98" customFormat="1">
-      <c r="B16" s="98" t="s">
+    <row r="26" spans="2:6">
+      <c r="B26" s="101" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="99" t="s">
-        <v>570</v>
-      </c>
-      <c r="I17" s="32" t="s">
+    <row r="27" spans="2:6" s="98" customFormat="1">
+      <c r="B27" s="98" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="102" customFormat="1">
+      <c r="B28" s="102" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30.75" customHeight="1">
-      <c r="B18" s="100" t="s">
+    <row r="29" spans="2:6">
+      <c r="B29" s="99" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="98" customFormat="1">
-      <c r="B19" s="98" t="s">
+    <row r="30" spans="2:6">
+      <c r="B30" s="101" t="s">
         <v>649</v>
       </c>
-      <c r="I19" s="98" t="s">
+      <c r="F30" s="32" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="99" t="s">
+    <row r="31" spans="2:6">
+      <c r="B31" s="99" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="101" t="s">
+    <row r="32" spans="2:6">
+      <c r="B32" s="101" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="99" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="99" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="101" t="s">
+    <row r="34" spans="2:6">
+      <c r="B34" s="101" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="98" customFormat="1">
-      <c r="B24" s="98" t="s">
+    <row r="35" spans="2:6" ht="30">
+      <c r="B35" s="103" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="99" t="s">
+    <row r="36" spans="2:6" s="102" customFormat="1">
+      <c r="B36" s="102" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="101" t="s">
+    <row r="37" spans="2:6">
+      <c r="B37" s="99" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" s="98" customFormat="1">
-      <c r="B27" s="98" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" s="102" customFormat="1">
-      <c r="B28" s="102" t="s">
+      <c r="F37" s="32" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="99" t="s">
+    <row r="38" spans="2:6" s="104" customFormat="1">
+      <c r="B38" s="104" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="101" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="99" t="s">
         <v>660</v>
       </c>
-      <c r="I30" s="32" t="s">
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="101" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="99" t="s">
+    <row r="41" spans="2:6">
+      <c r="B41" s="99" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="101" t="s">
+    <row r="42" spans="2:6" s="104" customFormat="1">
+      <c r="B42" s="104" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="99" t="s">
+    <row r="43" spans="2:6">
+      <c r="B43" s="99" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="101" t="s">
+    <row r="44" spans="2:6">
+      <c r="B44" s="101" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="30">
-      <c r="B35" s="103" t="s">
+    <row r="45" spans="2:6">
+      <c r="B45" s="99" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="36" spans="2:9" s="102" customFormat="1">
-      <c r="B36" s="102" t="s">
+    <row r="46" spans="2:6" s="104" customFormat="1">
+      <c r="B46" s="104" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="99" t="s">
+    <row r="47" spans="2:6">
+      <c r="B47" s="99" t="s">
         <v>668</v>
       </c>
-      <c r="I37" s="32" t="s">
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="101" t="s">
         <v>669</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" s="104" customFormat="1">
-      <c r="B38" s="104" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="99" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="101" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="99" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" s="104" customFormat="1">
-      <c r="B42" s="104" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="99" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="101" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="99" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" s="104" customFormat="1">
-      <c r="B46" s="104" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="99" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="101" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="99" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="101" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="99" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -11106,8 +10981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11123,178 +10998,178 @@
   <sheetData>
     <row r="1" spans="2:6" ht="23.25">
       <c r="B1" s="105" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="97" customFormat="1">
       <c r="B5" s="97" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1">
       <c r="B6" s="103" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="101" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="99" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="101" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="99" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="101" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="99" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="101" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="99" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="101" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="99" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="101" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="99" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="101" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="99" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="102" customFormat="1">
       <c r="B21" s="102" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30">
       <c r="B22" s="103" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="2:6" s="102" customFormat="1">
       <c r="B23" s="102" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="99" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="2:6" s="102" customFormat="1">
       <c r="B25" s="102" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="99" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="101" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="99" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="2:6" s="102" customFormat="1">
       <c r="B29" s="102" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="47" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="47" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="47" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -11310,149 +11185,144 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="32"/>
     <col min="2" max="2" width="63.5703125" style="32" customWidth="1"/>
-    <col min="3" max="8" width="13.5703125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="32" customWidth="1"/>
+    <col min="5" max="8" width="13.5703125" style="32" customWidth="1"/>
     <col min="9" max="9" width="73.7109375" style="32" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="23.25">
+    <row r="1" spans="2:5" ht="23.25">
       <c r="B1" s="105" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:5">
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:5">
       <c r="B6" s="10"/>
       <c r="C6" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="97" customFormat="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="97" customFormat="1">
       <c r="B7" s="97" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" s="98" customFormat="1">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" s="98" customFormat="1">
       <c r="B8" s="98" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" s="102" customFormat="1">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="102" customFormat="1">
       <c r="B9" s="102" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="99" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="101" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="99" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="101" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="102" customFormat="1">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="102" customFormat="1">
       <c r="B14" s="102" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="99" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="101" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="99" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="101" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="99" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="2:2" s="102" customFormat="1">
       <c r="B20" s="102" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="99" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="101" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="99" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="98" customFormat="1">
       <c r="B24" s="98" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="99" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -11460,17 +11330,17 @@
     </row>
     <row r="27" spans="2:2" s="98" customFormat="1">
       <c r="B27" s="98" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="99" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="101" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -11482,18 +11352,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="79ad9b3d-c362-4ecd-9843-0857e5b54572">ZDMEPJ7N762F-56-384</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="79ad9b3d-c362-4ecd-9843-0857e5b54572">
-      <Url>http://mustang/testing/_layouts/15/DocIdRedir.aspx?ID=ZDMEPJ7N762F-56-384</Url>
-      <Description>ZDMEPJ7N762F-56-384</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5067DAD2D69C249BEB492E4160F006D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b960338a32ee582b3008d2ed57246c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79ad9b3d-c362-4ecd-9843-0857e5b54572" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2fb93004a56ec70074780f7bada1587d" ns2:_="">
     <xsd:import namespace="79ad9b3d-c362-4ecd-9843-0857e5b54572"/>
@@ -11638,16 +11496,19 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="79ad9b3d-c362-4ecd-9843-0857e5b54572">ZDMEPJ7N762F-56-384</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="79ad9b3d-c362-4ecd-9843-0857e5b54572">
+      <Url>http://mustang/testing/_layouts/15/DocIdRedir.aspx?ID=ZDMEPJ7N762F-56-384</Url>
+      <Description>ZDMEPJ7N762F-56-384</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -11697,23 +11558,16 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B1AAF47-6F50-4E0B-9692-C60A6782341D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="79ad9b3d-c362-4ecd-9843-0857e5b54572"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{364ABE35-3764-4C8C-961C-1D40A5979B6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11731,18 +11585,34 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B1AAF47-6F50-4E0B-9692-C60A6782341D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="79ad9b3d-c362-4ecd-9843-0857e5b54572"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D92CDF3-8822-4F46-88E1-451486EAEE5E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6269EE74-83AD-487D-9596-67C939CAC88E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D92CDF3-8822-4F46-88E1-451486EAEE5E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>